--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3022A81-9CA2-49BE-B056-D3642B327AF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465F626-ACE4-496B-9DDB-A5A21BB970CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>周鑫媛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑枪 readyforthestage 饭制金属徽章</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -207,10 +203,6 @@
     <t>具正模饭制贴纸包</t>
   </si>
   <si>
-    <t>上海 嘉定区 嘉定工业区 嘉定镇街道（人民小区）梅园路78弄，请放置在人民小区健身广场旁边的快递柜中。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>微博ID：仙草奶冻加珍波椰去冰半糖</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -241,10 +233,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>田雄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">欧庆培 </t>
   </si>
   <si>
@@ -258,38 +246,14 @@
     <t>微博ID：你要吃小熊软糖么</t>
   </si>
   <si>
-    <t>补国内：张千</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>退包装费：吴彦嘻  王欣怡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">囤货：徐梦晨  周鑫媛  梁舒欣 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">补包装费：欧庆培 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>补国内 包装费：闵宣(田雄FALLIN' LOVE + BABY BEAR)     姗姗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>具正模饭制贴纸包</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>囤货：许若彬 朴施妍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">补国内 包装费：A梅j </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金宇硕readyforthestage</t>
   </si>
   <si>
@@ -322,7 +286,258 @@
     <t>陕西 西安市 雁塔区 曲江街道公田五路999号招商依云曲江1期</t>
   </si>
   <si>
-    <t>微博ID：zeawoooo</t>
+    <t>整理时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：别动我的小鱼饼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">周诗蓓 </t>
+  </si>
+  <si>
+    <t>广东 韶关市 浈江区 城区 北江北路17号中国人寿</t>
+  </si>
+  <si>
+    <t>微博ID：_哦吧饭_Vivienne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古 包头市 青山区 先锋道街道 赛音道四号街坊17栋2单元402</t>
+  </si>
+  <si>
+    <t>毕宇薇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：想吃限定抹茶泡芙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>readyforthestage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴彦嘻</t>
+  </si>
+  <si>
+    <t>辽宁 铁岭市 清河区 城区 园丁园小区</t>
+  </si>
+  <si>
+    <t>微博ID：kwseokily_</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 闵行区 浦江镇 召楼路2266弄6号401</t>
+  </si>
+  <si>
+    <t>王欣怡</t>
+  </si>
+  <si>
+    <t>微博ID：金宇硕的小鸡爪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">囤货：闵宣(田雄FALLIN' LOVE + BABY BEAR) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补国内 包装费：姗姗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">囤货：许若彬 朴施妍 A梅j </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 浦东新区 张江镇 锦绣路888弄27号1501室</t>
+  </si>
+  <si>
+    <t>A梅j</t>
+  </si>
+  <si>
+    <t>微博ID：未解梦境 / 囤货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浙江 杭州市 余杭区 临平东湖中路115号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵宣</t>
+  </si>
+  <si>
+    <t>田雄FALLIN’ LOVE + 田雄BABY BEAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：嗑嗑Kim / 囤货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭制金属徽章（love shot）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：突秃BOOOM / 微信：Ayeeeelen🦇 / 囤货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 嘉定区 嘉定工业区 嘉定镇街道（人民小区）梅园路78弄，请放置在人民小区健身广场旁边的快递柜中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 深圳市 宝安区 西乡街道三围北十巷一号</t>
+  </si>
+  <si>
+    <t>张千</t>
+  </si>
+  <si>
+    <t>微博ID：豆嘤嘤嘤嘤丷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张昕百</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微博ID：百家讲坛_ / 囤货 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江 大庆市 龙凤区 欣凤学城一期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜熊少女楚小慈</t>
+  </si>
+  <si>
+    <t>田雄paint drop一代  blue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 朝阳区 中国传媒大学中蓝公寓</t>
+  </si>
+  <si>
+    <t>微博ID：甜熊少女楚小慈_woongni</t>
+  </si>
+  <si>
+    <t>王植雅</t>
+  </si>
+  <si>
+    <t>北京 西城区 新街口街道 阜成门内 宏大南楼</t>
+  </si>
+  <si>
+    <t>微博ID：狗谁谁火  /  囤货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鬼鬼 </t>
+  </si>
+  <si>
+    <t>田雄paint drop一代  blue + AB6IX团体手幅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 普陀区 城区 铜川路999弄11号202</t>
+  </si>
+  <si>
+    <t>811041922008992 </t>
+  </si>
+  <si>
+    <t>金秦禹紫色手幅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代收代付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄少姿</t>
+  </si>
+  <si>
+    <t>金东贤代收代付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 惠州市 惠东县 吉隆镇 东洲新村60号</t>
+  </si>
+  <si>
+    <t>微博ID：UNIQ回归了吗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 / AB6IX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄FALLIN’ LOVE + 田雄paint drop一代 green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：Kimmy大玉米</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>庾敏言</t>
+  </si>
+  <si>
+    <t>广东 佛山市 南海区 桂城镇 季华七路怡翠玫瑰园10座</t>
+  </si>
+  <si>
+    <t>微博ID：6host / 囤货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆 武隆县 巷口镇 世纪五龙城5号楼1单元5-4</t>
+  </si>
+  <si>
+    <t>微博ID：明天的浮梓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX团体手幅</t>
+  </si>
+  <si>
+    <t>上海 闵行区 七宝镇中春路8888弄43号302室</t>
+  </si>
+  <si>
+    <t>微博ID：碳酸白桃p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">铃铛 </t>
+  </si>
+  <si>
+    <t>咕噜米 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姗姗  顺丰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX团体手幅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市顺义区南法信旭辉空港中心A座513-514室</t>
+  </si>
+  <si>
+    <t>AB6IX团体手幅*2 + 田雄URSA MINOR一代</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">田雄FALLIN’ LOVE 一代 Teddy*1+Dream*1 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,10 +635,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF404040"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF737373"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -487,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +778,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -850,346 +1114,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B1DD68-16A4-465B-A9CA-11D754A436B0}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="95.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="96.88671875" customWidth="1"/>
+    <col min="7" max="7" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
+        <v>7.23</v>
+      </c>
+      <c r="C3" s="11">
         <v>811040661987262</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>13915077252</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="15"/>
+      <c r="C4" s="11">
         <v>811037536464923</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>13918193509</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11">
+      <c r="C5" s="11">
         <v>810946422958533</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>13566517560</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11">
+      <c r="C6" s="11">
         <v>811023231320425</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>18019082909</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11">
+      <c r="C7" s="11">
         <v>811038668390761</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>18019082909</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12">
+      <c r="C8" s="12">
         <v>811038961570563</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <v>15546622309</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12">
+        <v>811038482091823</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>17723694399</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9">
+      <c r="G9" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12">
+        <v>811017962581807</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9">
         <v>17723694399</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12">
+        <v>810978751090479</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="9">
+        <v>17723694399</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C12" s="12">
+        <v>811052689240288</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12">
-        <v>811052689240288</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="E12" s="9">
+        <v>13719018099</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9">
-        <v>13719018099</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="9" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11">
+        <v>811053038162356</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>13928734848</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="14">
+        <v>7.24</v>
+      </c>
+      <c r="C14" s="11">
+        <v>811072112691622</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>18845115605</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11">
+        <v>811058574528274</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>13602240778</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="11">
+        <v>811057757019101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>15947125215</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="11">
+        <v>810946809752764</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>18340152517</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="11">
+        <v>811038799845165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>17521016923</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="14">
+        <v>7.25</v>
+      </c>
+      <c r="C19" s="11">
+        <v>811049521556588</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>13509651670</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="12">
+        <v>811017811587008</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="11">
-        <v>811053038162356</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>13928734848</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="11">
-        <v>811072112691622</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>18845115605</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="C24" s="13">
+        <v>811043365357138</v>
+      </c>
+      <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13">
-        <v>811043365357138</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E24">
+        <v>18049929101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="D17">
-        <v>18049929101</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C25" s="11">
+        <v>811041987600429</v>
+      </c>
+      <c r="D25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="E25">
+        <v>15171276024</v>
+      </c>
+      <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="11">
-        <v>811041987600429</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="G25" t="s">
         <v>37</v>
       </c>
-      <c r="D18">
-        <v>15171276024</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C26" s="12">
+        <v>811034696089429</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="9">
+        <v>18205008808</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12">
-        <v>811034696089429</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="9">
-        <v>18205008808</v>
-      </c>
-      <c r="E19" s="9" t="s">
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9">
+        <v>17784629952</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="17">
+        <v>7.24</v>
+      </c>
+      <c r="C28" s="12">
+        <v>811201751477148</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="9">
+        <v>15988111637</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="C32" s="13">
+        <v>810974709519251</v>
+      </c>
+      <c r="D32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="9">
-        <v>17784629952</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="E32">
+        <v>13877267573</v>
+      </c>
+      <c r="F32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="13">
-        <v>810974709519251</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>13877267573</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>47</v>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="17">
+        <v>7.24</v>
+      </c>
+      <c r="C33" s="12">
+        <v>810972331647198</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="9">
+        <v>13564137806</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="14">
+        <v>7.25</v>
+      </c>
+      <c r="C34" s="13">
+        <v>811031908987592</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34">
+        <v>13307415267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12">
+        <v>811017547009449</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="9">
+        <v>17852150253</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="12">
+        <v>811002921224096</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="9">
+        <v>13661865073</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="9">
+        <v>13661865073</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="13">
+        <v>811000492091317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38">
+        <v>19866227404</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="13">
+        <v>811008136224317</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39">
+        <v>15223895717</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="13">
+        <v>811012441774163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40">
+        <v>13818020875</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41">
+        <v>13141391144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="14">
+        <v>7.25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45">
+        <v>15819660552</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A030353D-B40D-464C-A240-1F5A2F1120CD}">
-  <dimension ref="B4:B23"/>
+  <dimension ref="B4:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1218,58 +1900,43 @@
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>50</v>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>45</v>
+      <c r="B10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0080C6CE-E19B-4C10-9D8F-0967F4F01F7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D187DC8-D989-43DF-B53C-2DF0D21B2240}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
   <sheets>
-    <sheet name="正确补款" sheetId="3" r:id="rId1"/>
+    <sheet name="接受箱" sheetId="3" r:id="rId1"/>
     <sheet name="未正确补款" sheetId="2" r:id="rId2"/>
+    <sheet name="贩卖机" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="357">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,9 +71,6 @@
   <si>
     <t>微博ID：je_li_soo</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">杨骏 </t>
   </si>
   <si>
     <t>上海 松江区 城区 上海市松江区仓华路999弄(绿地凯旋宫小区) 放快递柜就好</t>
@@ -114,9 +112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>云南 昆明市 盘龙区 万源路2号万源小区</t>
-  </si>
-  <si>
     <t xml:space="preserve">微博ID：冰雹_Hail </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -125,31 +120,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>黑龙江 哈尔滨市 香坊区 城区 东北农业大学</t>
-  </si>
-  <si>
     <t>囤货</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>周鑫媛</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>福建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 福州市 闽侯县 上街镇 大学城福州大学</t>
-    </r>
   </si>
   <si>
     <r>
@@ -166,20 +142,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>广东 广州市 从化区 城区 街口街道中蓝东路二巷6栋东梯成功路小区（放电力局后面的丰巢快递柜）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微博ID：CRYSTAL_sujeong / 囤货</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -203,9 +165,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>湖北 孝感市 孝南区 城区 长征路221号(供电公司)</t>
-  </si>
-  <si>
     <t xml:space="preserve">微博ID：月球航行 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -214,9 +173,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>江苏 徐州市 鼓楼区 城区 黄楼街道民主北路慧谷阳光花园C4-802室</t>
-  </si>
-  <si>
     <t>微博ID：大杯鳄梨罗宾汉 / 囤货</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -225,9 +181,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>广西 柳州市 柳北区 城区 景观路68号山亿土石方工程设备有限公司</t>
-  </si>
-  <si>
     <t>微博ID：你要吃小熊软糖么</t>
   </si>
   <si>
@@ -235,9 +188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>海南 海口市 美兰区 海南省海口市美兰区滨江路枫丹白露</t>
-  </si>
-  <si>
     <t>广东 佛山市 顺德区 大良镇 德胜中路万科金域滨江广场9座1301</t>
   </si>
   <si>
@@ -253,9 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>陕西 西安市 雁塔区 曲江街道公田五路999号招商依云曲江1期</t>
-  </si>
-  <si>
     <t>整理时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -267,16 +214,10 @@
     <t xml:space="preserve">周诗蓓 </t>
   </si>
   <si>
-    <t>广东 韶关市 浈江区 城区 北江北路17号中国人寿</t>
-  </si>
-  <si>
     <t>微博ID：_哦吧饭_Vivienne</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>内蒙古 包头市 青山区 先锋道街道 赛音道四号街坊17栋2单元402</t>
-  </si>
-  <si>
     <t>毕宇薇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -285,26 +226,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>吴彦嘻</t>
-  </si>
-  <si>
-    <t>辽宁 铁岭市 清河区 城区 园丁园小区</t>
-  </si>
-  <si>
     <t>微博ID：kwseokily_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上海 闵行区 浦江镇 召楼路2266弄6号401</t>
-  </si>
-  <si>
-    <t>王欣怡</t>
-  </si>
-  <si>
     <t>微博ID：金宇硕的小鸡爪 </t>
-  </si>
-  <si>
-    <t>上海 浦东新区 张江镇 锦绣路888弄27号1501室</t>
   </si>
   <si>
     <t>A梅j</t>
@@ -339,10 +265,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>金宇硕饭制金属徽章（love shot）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微博ID：突秃BOOOM / 微信：Ayeeeelen🦇 / 囤货</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -351,9 +273,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>广东 深圳市 宝安区 西乡街道三围北十巷一号</t>
-  </si>
-  <si>
     <t>张千</t>
   </si>
   <si>
@@ -434,16 +353,10 @@
     <t>庾敏言</t>
   </si>
   <si>
-    <t>广东 佛山市 南海区 桂城镇 季华七路怡翠玫瑰园10座</t>
-  </si>
-  <si>
     <t>微博ID：6host / 囤货</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>重庆 武隆县 巷口镇 世纪五龙城5号楼1单元5-4</t>
-  </si>
-  <si>
     <t>微博ID：明天的浮梓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -451,9 +364,6 @@
     <t>AB6IX团体手幅</t>
   </si>
   <si>
-    <t>上海 闵行区 七宝镇中春路8888弄43号302室</t>
-  </si>
-  <si>
     <t>微博ID：碳酸白桃p</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -465,17 +375,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>姗姗  顺丰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AB6IX团体手幅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>北京市顺义区南法信旭辉空港中心A座513-514室</t>
-  </si>
-  <si>
     <t>AB6IX团体手幅*2 + 田雄URSA MINOR一代</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -505,9 +408,6 @@
     <t>金鱼虾</t>
   </si>
   <si>
-    <t>广东 深圳市 福田区 百花二路南天二花园6-403</t>
-  </si>
-  <si>
     <t>微博ID：CiaoAmore_61</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -523,9 +423,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>广东 梅州市 大埔县 湖寮镇 同仁路六巷同仁小区</t>
-  </si>
-  <si>
     <t>微博ID：BabyINskz-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -534,9 +431,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上海 普陀区 城区 管弄路280号虾米轻社区3楼M308室</t>
-  </si>
-  <si>
     <t>微博ID：-甜食腦</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -545,9 +439,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>辽宁 沈阳市 皇姑区 黄河街道黄河南大街20号沈阳市第四人民医院3号楼7楼心胸外科</t>
-  </si>
-  <si>
     <t>微博ID：一个冰柠檬女孩的小号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -560,9 +451,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>金宇硕圈外女友</t>
-  </si>
-  <si>
     <t>张昕百</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -575,32 +463,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>江苏 镇江市 京口区 城区 大西路京润国际</t>
-  </si>
-  <si>
-    <t>黑枪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微博ID：-甜度爆炸金宇硕-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>补国内+包装费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>郑怡晓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上海 普陀区 城区 澳门路288弄6号302室</t>
-  </si>
-  <si>
     <t>微博ID：哔哔是个小笨蛋</t>
-  </si>
-  <si>
-    <t>上海 浦东新区 康桥镇 上海浦东新区康桥镇沪南路3223弄2号401</t>
   </si>
   <si>
     <t>810995159722722 </t>
@@ -626,17 +497,1340 @@
     <t>金宇硕饭制金属徽章  love shot 版本</t>
   </si>
   <si>
+    <t xml:space="preserve">闵宣 </t>
+  </si>
+  <si>
+    <t>微博ID：有丹尼爾的地方就有我</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秦禹紫色手幅</t>
+  </si>
+  <si>
+    <t>田雄paint drop一代*2  各一套</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：AMR563</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX团体手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：你戳不在线</t>
+  </si>
+  <si>
+    <t>微博ID：突秃BOOOM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">微博ID：突秃BOOOM </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：突秃BOOOM / 微信：Ayeeeelen🦇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雅</t>
+  </si>
+  <si>
+    <t>田雄milky woong一代  yellow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姗姗  顺丰到付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佩茵 顺丰到付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>囤货已发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还未正确补款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建 厦门市 集美区 后溪镇 平阳里小区</t>
+  </si>
+  <si>
+    <t>微博ID：楊肥皂lxj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪雯</t>
+  </si>
+  <si>
+    <t>广东 深圳市 宝安区 西安黃田錦繡花園11棟</t>
+  </si>
+  <si>
+    <t>微博ID：巴娜娜曜汉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江 宁波市 象山县 丹城镇丹峰东路2号汇金大厦408室</t>
+  </si>
+  <si>
+    <t>田雄FALLIN’ LOVE 一代 Teddy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄FALLIN’ LOVE Teddy + 田雄BABY BEAR 红色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏 南通市 崇川区 城区 学士付学士府1幢1803室</t>
+  </si>
+  <si>
+    <t>麦穗晖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">戴詩朗 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕圈外女友</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：沐颜憙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">许欣 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>周晨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：jeonnoel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">何欣雨 </t>
+  </si>
+  <si>
+    <t>湖北 潜江市 江汉石油管理局 广华中学</t>
+  </si>
+  <si>
+    <t>云南 昆明市 盘龙区 万源路2号万源小区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江 哈尔滨市 香坊区 城区 东北农业大学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 从化区 城区 街口街道中蓝东路二巷6栋东梯成功路小区（放电力局后面的丰巢快递柜）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福建 福州市 闽侯县 上街镇 大学城福州大学</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福建 福州市 闽侯县 上街镇 大学城福州大学</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北 孝感市 孝南区 城区 长征路221号(供电公司)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏 徐州市 鼓楼区 城区 黄楼街道民主北路慧谷阳光花园C4-802室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南 海口市 美兰区 海南省海口市美兰区滨江路枫丹白露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西 柳州市 柳北区 城区 景观路68号山亿土石方工程设备有限公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西 西安市 雁塔区 曲江街道公田五路999号招商依云曲江1期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 韶关市 浈江区 城区 北江北路17号中国人寿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古 包头市 青山区 先锋道街道 赛音道四号街坊17栋2单元402</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁 铁岭市 清河区 城区 园丁园小区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 闵行区 浦江镇 召楼路2266弄6号401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 浦东新区 张江镇 锦绣路888弄27号1501室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 深圳市 宝安区 西乡街道三围北十巷一号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 佛山市 南海区 桂城镇 季华七路怡翠玫瑰园10座</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆 武隆县 巷口镇 世纪五龙城5号楼1单元5-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 闵行区 七宝镇中春路8888弄43号302室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市顺义区南法信旭辉空港中心A座513-514室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 深圳市 福田区 百花二路南天二花园6-403</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 梅州市 大埔县 湖寮镇 同仁路六巷同仁小区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 普陀区 城区 管弄路280号虾米轻社区3楼M308室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁 沈阳市 皇姑区 黄河街道黄河南大街20号沈阳市第四人民医院3号楼7楼心胸外科</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>辽宁 大连市 高新园区 大连市高新区凌海路1号大连海事大学轮机学院办公室309房间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 浦东新区 康桥镇 上海浦东新区康桥镇沪南路3223弄2号401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津 津南区 双林农场津南环内 梅江东 浯水道与艺林路交口仕林苑西区别墅4-3（放速递易）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港 九龙 油尖旺区 尖沙咀852EA九龙佐敦庙街271号地下(连阁楼)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 普陀区 城区 澳门路288弄6号302室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西 西安市 雁塔区 长安南路199号陕西师范大学公寓四129室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏 镇江市 京口区 城区 大西路京润国际</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">杨骏 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴彦嘻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王欣怡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周鑫媛</t>
+  </si>
+  <si>
+    <t>黑枪/readyforthestage/金宇硕饭制金属徽章（love shot）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">杨璐羽 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：松冈茜_akane</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵宣（Line 50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈潮生 </t>
+  </si>
+  <si>
+    <t>广西 贺州市 八步区 广西壮族自治区贺州市八步区八步街道星光路139号桂电花园</t>
+  </si>
+  <si>
+    <r>
+      <t>微博ID：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>song-ivy</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贩卖机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：倔到拉不回来的JUCK小皇驴 / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：倔到拉不回来的JUCK小皇驴 / 和接受箱补款的黑枪一起发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙only Mini反光手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶楚婕</t>
+  </si>
+  <si>
+    <t>上海 宝山区 月浦镇 88弄富浩河滨花园31号401</t>
+  </si>
+  <si>
+    <t>微博ID：杂食系小叶</t>
+  </si>
+  <si>
+    <t>江苏 南京市 浦口区 盘城街道新华西路458号盘金华府36幢302室</t>
+  </si>
+  <si>
+    <t>微博ID：多糖芥末 / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推特饭制404姓名牌 孙东杓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建 宁德市 霞浦县 城区 太康路中锦香格里一号楼405</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哦阿奇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>姜敏熙饭制证件照</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：阿奇味泗安茶茶茶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推特饭制404姓名牌 曹承衍</t>
+  </si>
+  <si>
+    <t>山东 济南市 长清区 归德镇 山东省济南市长清区归德镇</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>董晓宇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>福建 福州市 闽侯县 上街镇 大学城福州大学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北 邢台市 平乡县 丰州镇 文明路御景新城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘佳美星 </t>
+  </si>
+  <si>
+    <t>微博ID：热恋的热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">周鑫媛 </t>
+    </r>
+  </si>
+  <si>
+    <t>上海 浦东新区 北蔡镇 莲园路151弄20号301室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二建 </t>
+  </si>
+  <si>
+    <t>微博ID：lim_foreinga / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金敏圭likin 2019夏日周边 手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁 沈阳市 和平区 城区 西塔街道南京北街金苑华城18号楼三单元</t>
+  </si>
+  <si>
+    <t>微博ID：Vakzi </t>
+  </si>
+  <si>
+    <t>推特饭制404姓名牌 边盛泰*1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北 武汉市 江汉区 城区 江达路香缇美景17栋1单元1402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">程婉湘 </t>
+  </si>
+  <si>
+    <t>微博ID：柚子不比柠檬酸 / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭绘贴纸 防辐射*1 换装*1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭绘贴纸 防辐射*1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建 厦门市 思明区 塔埔路100号1416</t>
+  </si>
+  <si>
+    <t>陈艾林</t>
+  </si>
+  <si>
+    <t>微博ID：负量地狱王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金敏圭 饭制透扇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 黄浦区 城区 上海市黄浦区南京东路街道409–459号，置地广场3楼，Boujeloud</t>
+  </si>
+  <si>
+    <t>微博ID：热心市民姜吸吸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梦久丽都 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 番禺区 城区 广东工业大学番禺校区国际教育学院</t>
+  </si>
+  <si>
+    <t>上海 黄浦区 城区 上海市黄浦区南京东路街道409–459号，置地广场3楼，Boujeloud</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈立信 </t>
+  </si>
+  <si>
+    <t>李镇赫 BRILLIANT 夏日 手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫 BRILLIANT 夏日 大王扇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈立信 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：卡其卡其嘿 / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">唐小叽 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浙江 温州市 乐清市 城区 城南街道南城嘉园f栋1101</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：小太阳_Yuzu / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具正模饭制PVC卡包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">周晨 </t>
+  </si>
+  <si>
+    <t>江苏 南通市 崇川区 城区 学士付学士府1幢1803室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>周晨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（机 Line 22）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">陈梓茵 
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 清远市 英德市 英城镇 英德市仲达街七排五号新睿教育</t>
+  </si>
+  <si>
+    <t>韩胜宇blue wave gan饭制反光手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：甜甜卢小抄</t>
+  </si>
+  <si>
+    <t>河北 承德市 平泉县 平泉镇 平泉一中丑小丫文百店</t>
+  </si>
+  <si>
+    <t>孙东杓饭制证件照2.0  2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古 通辽市 科尔沁区 红星新城五号楼一单元901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNOYOUNG </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：YUNOYOUNG_</t>
+  </si>
+  <si>
+    <t>金敏圭@MINGYU_is_ART 夏日周边</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 惠州市 惠阳区 大亚湾霞涌镇育才路18号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈静敏 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东 青岛市 李沧区 文昌路155号金水龙泽苑9号楼502</t>
+  </si>
+  <si>
+    <t>微博ID：宁铭悦啊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：xxxjmchan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宁铭悦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>广东 东莞市 石碣镇 王洲湾1号丰巢快递柜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓饭制证件照2.0  1和2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东 淄博市 张店区 世纪花园竹园三号二单元702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微博ID：久肆宇宙
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江 温州市 瓯海区 南白象街道南湖锦园12幢1902室</t>
+  </si>
+  <si>
+    <t>微博ID：x_xuyux / 跟bold一代和BronzeSparkle一代一起发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 海珠区 晓港中马路4号三楼</t>
+  </si>
+  <si>
+    <t>卢玉垚（疑错拍）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南 濮阳市 华龙区 安泰路阳光花园南门11号楼 一楼西户</t>
+  </si>
+  <si>
+    <t>樊银花（疑错拍）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓晴（代补款 确认中）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐雨欣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 清远市 清城区 城区 丽清花园丽盈苑D505</t>
+  </si>
+  <si>
+    <t>李垠尚饭制贴纸包 *2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">钟芊芊 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>811081831364525 811081931757485</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：暴躁若里裕枝 / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭制金属徽章 *2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 普陀区 城区 长风新村街道中山北路3663号华东师范大学6舍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陈大树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>微博ID：uknow小希希</t>
+  </si>
+  <si>
+    <t>徐梦晨</t>
+  </si>
+  <si>
+    <t>汤静怡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：x_xuyux</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵媛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓BOLD_0909一代反光手幅</t>
+  </si>
+  <si>
+    <t>孙东杓@BronzeSparkle 一代反光手幅</t>
+  </si>
+  <si>
+    <t>七七</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福建 福州市 晋安区 新店镇 秀山路198号康城小区1期</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：oxxoi</t>
+  </si>
+  <si>
+    <t>黄雅骏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北 武汉市 武昌区 杨园街道 才华名苑一期四栋二单元201</t>
+  </si>
+  <si>
+    <t>郝悦淼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">郭枫林 </t>
+  </si>
+  <si>
+    <t>孙东杓饭制证件照2.0  2</t>
+  </si>
+  <si>
+    <t>囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNOYOUNG </t>
+  </si>
+  <si>
+    <t>微博ID：YUNOYOUNG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古 通辽市 科尔沁区 红星新城五号楼一单元901</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 海淀区 中关村街道五环内科学院南路五环内东南小区903号楼807室（放快递柜）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭欣蕾(错拍)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南 怀化市 鹤城区 城区 河西天凯装饰城11栋</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周越</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金敏圭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>likin 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏日周边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手幅</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 闵行区 华漕镇 祥宾新村17号202室</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周梦思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：姜心笔芯M_A_O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙饭制证件照</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜敏熙only Mini反光手幅 *2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">周梦思 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓饭制证件照2.0  版本2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川 成都市 邛崃市 临邛镇 天府临邛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈思颖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李垠尚饭制贴纸包</t>
+  </si>
+  <si>
+    <t>李垠尚饭制贴纸包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆 沙坪坝区 天星桥街道 都市花园西路9号附1号12-1</t>
+  </si>
+  <si>
+    <t>黄允圣 饭制证件照</t>
+  </si>
+  <si>
+    <t>微博ID：明灯闲月饮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘思秦(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 深圳市 福田区 新沙路都市花园北大门e栈</t>
+  </si>
+  <si>
+    <t>孙东杓饭制证件照2.0  版本1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微博ID：邓凳头发乱</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江 温州市 乐清市 淡溪镇 淡溪镇茅洋南路49</t>
+  </si>
+  <si>
+    <t>邓心悦(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏畅(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西 西安市 雁塔区 小寨东路77号润泽造型</t>
+  </si>
+  <si>
+    <t>金宇硕饭绘贴纸 换装*1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">张佳焱 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张佳焱(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐梦晨(贩卖机 Line33)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西 九江市 浔阳区 满庭春MOMA小区21栋</t>
+  </si>
+  <si>
+    <t>黄昊(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 珠海市 香洲区 拱北区 拱北口岸商场来魅力商场小黄人淘宝代收点</t>
+  </si>
+  <si>
+    <t>李小莹(补包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 天河区 东圃城市假日园B1栋301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yoyo </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄允圣 饭制证件照</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>811055125835401 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>811076148866697 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>811109875554966 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">菜菜 </t>
+    </r>
+  </si>
+  <si>
+    <t>云南 昆明市 五华区 高新区 朝花曦拾21幢1单元</t>
+  </si>
+  <si>
+    <t>具正模饭制贴纸包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">鬼鬼 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微博ID：6host / 囤货</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：甜熊少女楚小慈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_woongni </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜熊少女楚小慈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 松江区 城区 上海市松江区谷阳北路公捷苑75号301室</t>
+  </si>
+  <si>
+    <t>田雄 @flyhigh_jw 一代反光手幅  A</t>
+  </si>
+  <si>
+    <t>田雄 @flyhigh_jw 一代反光手幅  A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 @flyhigh_jw 一代反光手幅  A+B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微博ID：_莜竹竹_</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵爽(补国内+包装)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">微博ID：请叫我黄总_ 订单号: </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾君</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,13 +1902,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF404040"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
@@ -738,8 +1925,107 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF404040"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,6 +2040,28 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -790,7 +2098,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,8 +2108,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,9 +2146,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -844,27 +2158,135 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="7" borderId="0" xfId="5" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="20% - 着色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="4" builtinId="26"/>
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
@@ -1178,25 +2600,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="98.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" customWidth="1"/>
     <col min="7" max="7" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1217,14 +2639,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>7.23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>811040661987262</v>
       </c>
       <c r="D2" t="s">
@@ -1233,19 +2655,19 @@
       <c r="E2">
         <v>13915077252</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10">
+        <v>179</v>
+      </c>
+      <c r="C3" s="9">
         <v>811037536464923</v>
       </c>
       <c r="D3" t="s">
@@ -1254,19 +2676,19 @@
       <c r="E3">
         <v>13918193509</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>810946422958533</v>
       </c>
       <c r="D4" t="s">
@@ -1275,40 +2697,40 @@
       <c r="E4">
         <v>13566517560</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>811053038162356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>13928734848</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10">
-        <v>811023231320425</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>18019082909</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>811038668390761</v>
       </c>
       <c r="D6" t="s">
@@ -1317,41 +2739,40 @@
       <c r="E6">
         <v>18019082909</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
+      <c r="F6" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="22">
+        <v>811038961570563</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="46">
+        <v>15546622309</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11">
-        <v>811038961570563</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8">
-        <v>15546622309</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>811038482091823</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1360,252 +2781,263 @@
       <c r="E8" s="8">
         <v>17723694399</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10">
+        <v>811052689240288</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8">
+        <v>13719018099</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10">
         <v>811017962581807</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8">
-        <v>17723694399</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="11">
-        <v>810978751090479</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8">
         <v>17723694399</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9">
+        <v>811023231320425</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>18019082909</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="10">
+        <v>810978751090479</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="8">
+        <v>17723694399</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11">
+        <v>811043365357138</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11">
-        <v>811052689240288</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="8">
-        <v>13719018099</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="10">
-        <v>811053038162356</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>13928734848</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12">
-        <v>811043365357138</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13">
         <v>18049929101</v>
       </c>
-      <c r="F13" t="s">
-        <v>71</v>
+      <c r="F13" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
         <v>811041987600429</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>15171276024</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
+      <c r="F14" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="11">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10">
         <v>811034696089429</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="8">
         <v>18205008808</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>36</v>
+      <c r="F15" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" s="8">
         <v>17784629952</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>42</v>
+      <c r="F16" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="12">
+        <v>102</v>
+      </c>
+      <c r="C17" s="11">
         <v>810974709519251</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>13877267573</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>7.24</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="10">
+        <v>811201751477148</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8">
+        <v>15988111637</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9">
+        <v>811072112691622</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>18845115605</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="5" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="9">
+        <v>811057757019101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>15947125215</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="12"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>7.24</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="11">
-        <v>811201751477148</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8">
-        <v>15988111637</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="10">
-        <v>811072112691622</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>18845115605</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>811058574528274</v>
       </c>
       <c r="D22" t="s">
@@ -1614,514 +3046,895 @@
       <c r="E22">
         <v>13602240778</v>
       </c>
-      <c r="F22" t="s">
-        <v>51</v>
+      <c r="F22" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="10">
-        <v>811057757019101</v>
+        <v>180</v>
+      </c>
+      <c r="C23" s="9">
+        <v>810946809752764</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>15947125215</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>18340152517</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="10">
-        <v>810946809752764</v>
+        <v>181</v>
+      </c>
+      <c r="C24" s="9">
+        <v>811038799845165</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>18340152517</v>
-      </c>
-      <c r="F24" t="s">
+        <v>17521016923</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="22">
+        <v>810972331647198</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="21">
+        <v>13564137806</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>7.25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9">
+        <v>811049521556588</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>13509651670</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="10">
+        <v>811017811587008</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8">
+        <v>13836945765</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="9">
+        <v>811078301531235</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>15819660552</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C30" s="11">
+        <v>811031908987592</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30">
+        <v>13307415267</v>
+      </c>
+      <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="10">
-        <v>811038799845165</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="11">
+        <v>811000492091317</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <v>19866227404</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="10">
+        <v>811017547009449</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="8">
+        <v>17852150253</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="10">
+        <v>811002921224096</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="8">
+        <v>13661865073</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="8">
+        <v>13661865073</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="11">
+        <v>811008136224317</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>15223895717</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="11">
+        <v>811012441774163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36">
+        <v>13818020875</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37">
+        <v>13141391144</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>7.26</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="9">
+        <v>811039726499795</v>
+      </c>
+      <c r="D40" t="s">
         <v>7</v>
       </c>
-      <c r="E25">
-        <v>17521016923</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E40">
+        <v>18576621261</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="11">
+        <v>810992750777034</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41">
+        <v>19951205897</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="11">
+        <v>811011074093837</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42">
+        <v>13533815650</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="11">
+        <v>811000458596648</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43">
+        <v>18826055709</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="11">
+        <v>810982493641313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44">
+        <v>18367898810</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="11">
+        <v>811023496958267</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <v>18940813779</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="11">
+        <v>811022100328763</v>
+      </c>
+      <c r="D46" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="11">
-        <v>810972331647198</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="8">
-        <v>13564137806</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>7.25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="10">
-        <v>811049521556588</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>13509651670</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="11">
-        <v>811017811587008</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="8">
-        <v>13836945765</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="10">
-        <v>811078301531235</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E46">
+        <v>18940813779</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" t="s">
         <v>90</v>
       </c>
-      <c r="E31">
-        <v>15819660552</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="12">
-        <v>811031908987592</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32">
-        <v>13307415267</v>
-      </c>
-      <c r="F32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="12">
-        <v>811000492091317</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33">
-        <v>19866227404</v>
-      </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="12">
-        <v>811008136224317</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34">
-        <v>15223895717</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="12">
-        <v>811012441774163</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35">
-        <v>13818020875</v>
-      </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="47" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="11">
-        <v>811017547009449</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="8">
-        <v>17852150253</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="11">
-        <v>811002921224096</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="8">
-        <v>13661865073</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="8">
-        <v>13661865073</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39">
-        <v>13141391144</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>7.26</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="10">
-        <v>811039726499795</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>18576621261</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="12">
-        <v>810992750777034</v>
-      </c>
-      <c r="D43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43">
-        <v>19951205897</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="12">
-        <v>811011074093837</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44">
-        <v>13533815650</v>
-      </c>
-      <c r="F44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="12">
-        <v>811000458596648</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45">
-        <v>18826055709</v>
-      </c>
-      <c r="F45" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="12">
-        <v>810982493641313</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46">
-        <v>18367898810</v>
-      </c>
-      <c r="F46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>811028427233122</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E47">
         <v>13804064320</v>
       </c>
-      <c r="F47" t="s">
-        <v>127</v>
+      <c r="F47" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48">
+        <v>15021132625</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>7.27</v>
+      </c>
+      <c r="B50" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="12">
-        <v>811022100328763</v>
-      </c>
-      <c r="D48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48">
-        <v>18940813779</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="C50" s="17">
+        <v>810997883437278</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>13564137806</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="17">
+        <v>810980516602078</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51">
+        <v>13564137806</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="17">
+        <v>810972331647198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52">
+        <v>13564137806</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="11">
+        <v>810982241870798</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53">
+        <v>15222168592</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>7.28</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="11">
+        <v>811073903005322</v>
+      </c>
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55">
+        <v>97902836</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="11">
+        <v>811050447706580</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>13761260896</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="11">
+        <v>811024962770569</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57">
+        <v>15606958276</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="11">
+        <v>810980340109330</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58">
+        <v>13456116425</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="38">
+        <v>811040345488683</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="20">
+        <v>13962951462</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>7.29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="11">
+        <v>811014968122091</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61">
+        <v>15377652779</v>
+      </c>
+      <c r="F61" t="s">
         <v>147</v>
       </c>
-      <c r="G48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="12">
-        <v>811023496958267</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49">
-        <v>18940813779</v>
-      </c>
-      <c r="F49" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50">
-        <v>15021132625</v>
-      </c>
-      <c r="F50" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>144</v>
+      <c r="G61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="11">
+        <v>811011587368419</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62">
+        <v>13978408027</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="11"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="48">
+        <v>7.3</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="11">
+        <v>810993630755095</v>
+      </c>
+      <c r="D64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64">
+        <v>13686892317</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="11">
+        <v>811011926273410</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65">
+        <v>18221012625</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="48">
+        <v>7.31</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C67" s="32">
+        <v>811045980212915</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" s="18">
+        <v>18787169397</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" s="10">
+        <v>811041922008992</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="E68" s="8">
+        <v>13661865073</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="11">
+        <v>811001105717154</v>
+      </c>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69">
+        <v>18138391611</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="11">
+        <v>810986715043746</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70">
+        <v>18138391611</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" s="11">
+        <v>811071124861640</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71">
+        <v>13307415267</v>
+      </c>
+      <c r="F71" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" s="11">
+        <v>811070692947147</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72">
+        <v>13918662960</v>
+      </c>
+      <c r="F72" t="s">
+        <v>349</v>
+      </c>
+      <c r="G72" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2133,27 +3946,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A030353D-B40D-464C-A240-1F5A2F1120CD}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
     <col min="8" max="8" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2174,54 +3987,1147 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="11">
+        <v>811057553048416</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>15050861187</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="11"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="11"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="11"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="11"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="12">
-        <v>811057553048416</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="3">
-        <v>15050861187</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="12">
-        <v>811050447706580</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3">
-        <v>13761260896</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>141</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5875A0-B92D-47EF-B3AC-853650A65CA1}">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>7.29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="9">
+        <v>811058595567163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2">
+        <v>15021611629</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="10">
+        <v>810942878308578</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="8">
+        <v>15951787150</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="9">
+        <v>811078493680660</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4">
+        <v>17350673502</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="9">
+        <v>810942911743352</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5">
+        <v>18353181236</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="10">
+        <v>811069635915567</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17723694399</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="9">
+        <v>811079966028534</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7">
+        <v>19931908299</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="10">
+        <v>811080646206414</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="8">
+        <v>13122806723</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="9">
+        <v>810947894193093</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9">
+        <v>13204103121</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="10">
+        <v>811077061205582</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="8">
+        <v>18771936850</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="50">
+        <v>811069697845701</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="40">
+        <v>13566517560</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="9">
+        <v>811072717528986</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12">
+        <v>13710443586</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="9">
+        <v>811105322389025</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13">
+        <v>15900428830</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="9">
+        <v>811078863638049</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14">
+        <v>15900428830</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="10">
+        <v>811065990785220</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="8">
+        <v>13610078966</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="10">
+        <v>811043343386820</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="8">
+        <v>13610078966</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="10">
+        <v>811070911047876</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="8">
+        <v>13610078966</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="10">
+        <v>811090908339241</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="8">
+        <v>15669803265</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="9">
+        <v>811066083908907</v>
+      </c>
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19">
+        <v>13962951462</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="11">
+        <v>811040345488683</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>13962951462</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="11">
+        <v>811083578473417</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21">
+        <v>13076698356</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="11">
+        <v>811018293425055</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>13304758783</v>
+      </c>
+      <c r="F23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="11">
+        <v>811135256657328</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24">
+        <v>13510562372</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="11">
+        <v>811074749396236</v>
+      </c>
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25">
+        <v>13668874139</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="32">
+        <v>811137701319006</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="18">
+        <v>13662865073</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18">
+        <v>13864454666</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="11">
+        <v>811067301872322</v>
+      </c>
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28">
+        <v>13738351071</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18">
+        <v>15936716738</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="8">
+        <v>18926618206</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
+        <v>7.3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="11">
+        <v>811070952354563</v>
+      </c>
+      <c r="D32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32">
+        <v>15546622309</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="11">
+        <v>811038961570563</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>15546622309</v>
+      </c>
+      <c r="F33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="11">
+        <v>811115279963256</v>
+      </c>
+      <c r="D34" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34">
+        <v>15703148650</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35" s="11">
+        <v>810907843297986</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35">
+        <v>13738351071</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="11">
+        <v>810920467776194</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36">
+        <v>13738351071</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="11">
+        <v>811101975731641</v>
+      </c>
+      <c r="D37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37">
+        <v>18702098544</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="11">
+        <v>811083276735914</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38">
+        <v>13328210351</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="10">
+        <v>811118598871022</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="8">
+        <v>13971516992</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="11">
+        <v>811018293425055</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>13304758783</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18">
+        <v>18310963695</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="11">
+        <v>811071354988336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42">
+        <v>17330922031</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="40">
+        <v>17621774551</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44">
+        <v>17621774551</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="42">
+        <v>811056691463116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45">
+        <v>13568948308</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="18">
+        <v>13251336225</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="44">
+        <v>811142652466081</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="18">
+        <v>18948339201</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" s="44">
+        <v>811126870583439</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48" s="18">
+        <v>18368712909</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" s="44">
+        <v>811056745591394</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="18">
+        <v>18234438967</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="44">
+        <v>811071564370530</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="18">
+        <v>18234438967</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="44">
+        <v>811071518954082</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="18">
+        <v>18234438967</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" s="44">
+        <v>811127102423719</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="18">
+        <v>13479298036</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C53" s="44">
+        <v>811055142564936</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="18">
+        <v>13411513126</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="10">
+        <v>811093925624616</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" s="8">
+        <v>13580419140</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{964B6968-F314-411F-BAE5-B35E3AA7D821}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D187DC8-D989-43DF-B53C-2DF0D21B2240}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCDA9BB-583E-47D9-A0D4-9C3E011E9980}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="395">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -459,10 +459,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>补国内运费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微博ID：-甜度爆炸金宇硕-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1253,10 +1249,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>金宇硕饭制金属徽章 *2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>上海 普陀区 城区 长风新村街道中山北路3663号华东师范大学6舍</t>
   </si>
   <si>
@@ -1819,16 +1811,278 @@
     <t>顾君</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>北京 昌平区 生命园路29号创新大厦E座201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微信：wang1032668927
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王星宇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西 柳州市 柳北区 城区 北雀路98号区三建26栋一单元4-1号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">田雄paint drop一代 green
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆 渝北区 回兴街道 果糖路139号青河世家2栋</t>
+  </si>
+  <si>
+    <t>微博ID：你要吃小熊软糖么</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：睡觉顶饱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江 金华市 婺城区 城区 金艺路67号紫城花园8幢1单元401</t>
+  </si>
+  <si>
+    <t>湖南 益阳市 沅江市 太阳家园</t>
+  </si>
+  <si>
+    <t>孙淑宜(补款错拍)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 佛山市 南海区 桂城镇 桂城街道锦园路13号景兴环球大厦16楼</t>
+  </si>
+  <si>
+    <t>微博ID：福猪猪林</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 汕头市 潮南区 两英镇 培英幼儿园</t>
+  </si>
+  <si>
+    <t>微博ID：炸鸡狂热者hhh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连名(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝蓝(补包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧春园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>枣椰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 深圳市 龙岗区 龙岗街道南联银威路8号二楼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微博ID： kim燕酱</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘逸凡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 天河区 珠江新城南国花园B3-701</t>
+  </si>
+  <si>
+    <t>微博ID：北海妄想 / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">阿慧 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>readyforthestage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭制金属徽章（love shot）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 深圳市 南山区 龙珠军苑A栋</t>
+  </si>
+  <si>
+    <t>微博ID：你是什么口味的小熊软糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>许烟雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西 太原市 小店区 中心街6号国新能源发展集团有限公司</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李烧麦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：包头驼</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿娴(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭制金属徽章 love shot*2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林煐岷 YOU ARE MY PACA 三代   泡泡岷手幅+钥匙扣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林煐岷 YOU ARE MY PACA 三代  泡泡岷手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林煐岷 YOU ARE MY PACA 三代 泡泡岷手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林煐岷 YOU ARE MY PACA 三代  钥匙扣（无手幅）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林煐岷 YOU ARE MY PACA 三代  钥匙扣（无手幅）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="000000"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -2118,7 +2372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2280,6 +2534,18 @@
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2600,15 +2866,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -2665,7 +2931,7 @@
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="9">
         <v>811037536464923</v>
@@ -2740,7 +3006,7 @@
         <v>18019082909</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2749,7 +3015,7 @@
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C7" s="22">
         <v>811038961570563</v>
@@ -2761,10 +3027,10 @@
         <v>15546622309</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2782,7 +3048,7 @@
         <v>17723694399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>51</v>
@@ -2803,7 +3069,7 @@
         <v>13719018099</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>22</v>
@@ -2824,7 +3090,7 @@
         <v>17723694399</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>51</v>
@@ -2845,7 +3111,7 @@
         <v>18019082909</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -2854,19 +3120,19 @@
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="10">
         <v>810978751090479</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="8">
         <v>17723694399</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>51</v>
@@ -2906,7 +3172,7 @@
         <v>15171276024</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
@@ -2926,7 +3192,7 @@
         <v>18205008808</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>30</v>
@@ -2944,7 +3210,7 @@
         <v>17784629952</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
@@ -2964,7 +3230,7 @@
         <v>13877267573</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>32</v>
@@ -3007,7 +3273,7 @@
         <v>18845115605</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -3027,7 +3293,7 @@
         <v>15947125215</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -3047,7 +3313,7 @@
         <v>13602240778</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -3055,7 +3321,7 @@
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="9">
         <v>810946809752764</v>
@@ -3067,7 +3333,7 @@
         <v>18340152517</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -3075,7 +3341,7 @@
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" s="9">
         <v>811038799845165</v>
@@ -3087,7 +3353,7 @@
         <v>17521016923</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>45</v>
@@ -3096,7 +3362,7 @@
     <row r="25" spans="1:7" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="22">
         <v>810972331647198</v>
@@ -3108,7 +3374,7 @@
         <v>13564137806</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>52</v>
@@ -3136,7 +3402,7 @@
         <v>13509651670</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
         <v>55</v>
@@ -3219,7 +3485,7 @@
         <v>19866227404</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -3303,7 +3569,7 @@
         <v>15223895717</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" t="s">
         <v>78</v>
@@ -3324,7 +3590,7 @@
         <v>13818020875</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G36" t="s">
         <v>80</v>
@@ -3332,7 +3598,7 @@
     </row>
     <row r="37" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>84</v>
@@ -3341,7 +3607,7 @@
         <v>13141391144</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,7 +3632,7 @@
         <v>18576621261</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
@@ -3429,7 +3695,7 @@
         <v>18826055709</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
         <v>96</v>
@@ -3450,7 +3716,7 @@
         <v>18367898810</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -3470,7 +3736,7 @@
         <v>18940813779</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
         <v>90</v>
@@ -3478,7 +3744,7 @@
     </row>
     <row r="46" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="11">
         <v>811022100328763</v>
@@ -3490,7 +3756,7 @@
         <v>18940813779</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G46" t="s">
         <v>90</v>
@@ -3511,7 +3777,7 @@
         <v>13804064320</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
         <v>100</v>
@@ -3519,22 +3785,22 @@
     </row>
     <row r="48" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E48">
         <v>15021132625</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,7 +3808,7 @@
         <v>7.27</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="17">
         <v>810997883437278</v>
@@ -3554,30 +3820,30 @@
         <v>13564137806</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="17">
         <v>810980516602078</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51">
         <v>13564137806</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3588,36 +3854,36 @@
         <v>810972331647198</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52">
         <v>13564137806</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="11">
         <v>810982241870798</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53">
         <v>15222168592</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3625,27 +3891,27 @@
         <v>7.28</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="11">
         <v>811073903005322</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55">
         <v>97902836</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="11">
         <v>811050447706580</v>
@@ -3657,15 +3923,15 @@
         <v>13761260896</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="11">
         <v>811024962770569</v>
@@ -3677,35 +3943,35 @@
         <v>15606958276</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" t="s">
         <v>129</v>
-      </c>
-      <c r="G57" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="11">
         <v>810980340109330</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E58">
         <v>13456116425</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C59" s="38">
         <v>811040345488683</v>
@@ -3717,10 +3983,10 @@
         <v>13962951462</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,7 +3994,7 @@
         <v>7.29</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="11">
         <v>811014968122091</v>
@@ -3740,15 +4006,15 @@
         <v>15377652779</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C62" s="11">
         <v>811011587368419</v>
@@ -3760,10 +4026,10 @@
         <v>13978408027</v>
       </c>
       <c r="F62" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" t="s">
         <v>188</v>
-      </c>
-      <c r="G62" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3776,27 +4042,27 @@
         <v>7.3</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="11">
         <v>810993630755095</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="E64">
         <v>13686892317</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" t="s">
         <v>132</v>
-      </c>
-      <c r="G64" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C65" s="11">
         <v>811011926273410</v>
@@ -3808,10 +4074,10 @@
         <v>18221012625</v>
       </c>
       <c r="F65" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G65" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3819,33 +4085,33 @@
         <v>7.31</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C67" s="32">
         <v>811045980212915</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E67" s="18">
         <v>18787169397</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C68" s="10">
         <v>811041922008992</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E68" s="8">
         <v>13661865073</v>
@@ -3854,32 +4120,32 @@
         <v>67</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="11">
         <v>811001105717154</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69">
         <v>18138391611</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="11">
         <v>810986715043746</v>
@@ -3891,21 +4157,21 @@
         <v>18138391611</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C71" s="11">
         <v>811071124861640</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E71">
         <v>13307415267</v>
@@ -3914,27 +4180,285 @@
         <v>60</v>
       </c>
       <c r="G71" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C72" s="11">
         <v>811070692947147</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E72">
         <v>13918662960</v>
       </c>
       <c r="F72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="57">
+        <v>8.1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="11">
+        <v>811054821519787</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="E74">
+        <v>15732178700</v>
+      </c>
+      <c r="F74" t="s">
         <v>355</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="C75" s="11">
+        <v>811070907904915</v>
+      </c>
+      <c r="D75" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75">
+        <v>13517804301</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>376</v>
+      </c>
+      <c r="C76" s="11">
+        <v>811116646166476</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E76">
+        <v>19802368353</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>373</v>
+      </c>
+      <c r="C77" s="11">
+        <v>811106161623345</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E77">
+        <v>13017976404</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="C78" s="32">
+        <v>811078949190065</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E78" s="18">
+        <v>15773763226</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G78" s="18"/>
+    </row>
+    <row r="79" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="32">
+        <v>811074641863678</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" s="18">
+        <v>13450527153</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="C80" s="32">
+        <v>811086671491551</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80" s="18">
+        <v>13539676773</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" s="32">
+        <v>811085509119724</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="18">
+        <v>13413940501</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C82" s="10">
+        <v>811017606373549</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E82" s="8">
+        <v>13794383830</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C83" s="10">
+        <v>810977151099053</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E83" s="8">
+        <v>13794383830</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" s="56">
+        <v>811096879348818</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E84">
+        <v>17508449655</v>
+      </c>
+      <c r="F84" t="s">
+        <v>382</v>
+      </c>
+      <c r="G84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="11">
+        <v>811057553048416</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>15050861187</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>386</v>
+      </c>
+      <c r="C86" s="11">
+        <v>811084972248927</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="E86">
+        <v>18734173173</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="G86" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3946,10 +4470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A030353D-B40D-464C-A240-1F5A2F1120CD}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3989,112 +4513,77 @@
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="11">
-        <v>811057553048416</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>15050861187</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="11"/>
-      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="11"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>191</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="11"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="11"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
-      <c r="F13" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="11"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4108,7 +4597,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4149,96 +4638,96 @@
         <v>7.29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="9">
         <v>811058595567163</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2">
         <v>15021611629</v>
       </c>
       <c r="F2" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="10">
         <v>810942878308578</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="8">
         <v>15951787150</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="9">
         <v>811078493680660</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4">
         <v>17350673502</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="9">
         <v>810942911743352</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>18353181236</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="10">
         <v>811069635915567</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="8">
         <v>17723694399</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>51</v>
@@ -4246,93 +4735,93 @@
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="9">
         <v>811079966028534</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7">
         <v>19931908299</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="10">
         <v>811080646206414</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="8">
         <v>13122806723</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="9">
         <v>810947894193093</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9">
         <v>13204103121</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="10">
         <v>811077061205582</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="8">
         <v>18771936850</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C11" s="50">
         <v>811069697845701</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" s="40">
         <v>13566517560</v>
@@ -4346,167 +4835,167 @@
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="9">
         <v>811072717528986</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E12">
         <v>13710443586</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="9">
         <v>811105322389025</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13">
         <v>15900428830</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" t="s">
         <v>229</v>
-      </c>
-      <c r="G13" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="9">
         <v>811078863638049</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14">
         <v>15900428830</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="10">
         <v>811065990785220</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="8">
         <v>13610078966</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="10">
         <v>811043343386820</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="8">
         <v>13610078966</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="10">
         <v>811070911047876</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="8">
         <v>13610078966</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="10">
         <v>811090908339241</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="8">
         <v>15669803265</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="9">
         <v>811066083908907</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19">
         <v>13962951462</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="11">
         <v>811040345488683</v>
@@ -4518,114 +5007,114 @@
         <v>13962951462</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="11">
         <v>811083578473417</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E21">
         <v>13076698356</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="11">
         <v>811018293425055</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23">
         <v>13304758783</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="11">
         <v>811135256657328</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E24">
         <v>13510562372</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25" s="11">
         <v>811074749396236</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25">
         <v>13668874139</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>258</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="32">
         <v>811137701319006</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E26" s="18">
         <v>13662865073</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -4633,35 +5122,35 @@
         <v>13864454666</v>
       </c>
       <c r="F27" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>264</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C28" s="11">
         <v>811067301872322</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E28">
         <v>13738351071</v>
       </c>
       <c r="F28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" t="s">
         <v>266</v>
-      </c>
-      <c r="G28" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -4669,28 +5158,28 @@
         <v>15936716738</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>277</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="8">
         <v>18926618206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4698,22 +5187,22 @@
         <v>7.3</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C32" s="11">
         <v>811070952354563</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E32">
         <v>15546622309</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4730,146 +5219,146 @@
         <v>15546622309</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C34" s="11">
         <v>811115279963256</v>
       </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E34">
         <v>15703148650</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C35" s="11">
         <v>810907843297986</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E35">
         <v>13738351071</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" s="11">
         <v>810920467776194</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E36">
         <v>13738351071</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C37" s="11">
         <v>811101975731641</v>
       </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E37">
         <v>18702098544</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C38" s="11">
         <v>811083276735914</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38">
         <v>13328210351</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C39" s="10">
         <v>811118598871022</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E39" s="8">
         <v>13971516992</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C40" s="11">
         <v>811018293425055</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E40">
         <v>13304758783</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -4877,250 +5366,250 @@
         <v>18310963695</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C42" s="11">
         <v>811071354988336</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E42">
         <v>17330922031</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E43" s="40">
         <v>17621774551</v>
       </c>
       <c r="F43" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" s="40" t="s">
         <v>306</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" t="s">
         <v>307</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="D44" t="s">
-        <v>309</v>
       </c>
       <c r="E44">
         <v>17621774551</v>
       </c>
       <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" t="s">
         <v>306</v>
-      </c>
-      <c r="G44" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C45" s="42">
         <v>811056691463116</v>
       </c>
       <c r="D45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E45">
         <v>13568948308</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E46" s="18">
         <v>13251336225</v>
       </c>
       <c r="F46" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C47" s="44">
         <v>811142652466081</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E47" s="18">
         <v>18948339201</v>
       </c>
       <c r="F47" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C48" s="44">
         <v>811126870583439</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E48" s="18">
         <v>18368712909</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C49" s="44">
         <v>811056745591394</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E49" s="18">
         <v>18234438967</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C50" s="44">
         <v>811071564370530</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" s="18">
         <v>18234438967</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C51" s="44">
         <v>811071518954082</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E51" s="18">
         <v>18234438967</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52" s="44">
         <v>811127102423719</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E52" s="18">
         <v>13479298036</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G52" s="18"/>
     </row>
     <row r="53" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C53" s="44">
         <v>811055142564936</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E53" s="18">
         <v>13411513126</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C54" s="10">
         <v>811093925624616</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E54" s="8">
         <v>13580419140</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCDA9BB-583E-47D9-A0D4-9C3E011E9980}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9C74F-473C-4C56-9F17-302A591A671D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="426">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1093,22 +1093,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>周晨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（机 Line 22）</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">陈梓茵 
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1652,6 +1636,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1664,33 +1649,6 @@
   <si>
     <t>具正模饭制贴纸包</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">鬼鬼 </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>微博ID：6host / 囤货</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1779,24 +1737,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>微博ID：_莜竹竹_</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵爽(补国内+包装)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -1869,10 +1809,6 @@
     <t>湖南 益阳市 沅江市 太阳家园</t>
   </si>
   <si>
-    <t>孙淑宜(补款错拍)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>广东 佛山市 南海区 桂城镇 桂城街道锦园路13号景兴环球大厦16楼</t>
   </si>
   <si>
@@ -1884,14 +1820,6 @@
   </si>
   <si>
     <t>微博ID：炸鸡狂热者hhh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连名(补国内+包装费)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝蓝(补包装费)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2070,6 +1998,197 @@
   </si>
   <si>
     <t>林煐岷 YOU ARE MY PACA 三代  钥匙扣（无手幅）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 海珠区 珠江帝景克莱公寓C座3106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微博ID：A-BIT-SLEEPY
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿慧 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微博ID：_莜竹竹_</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵爽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 天河区 前进街宦溪福幸里5巷7号</t>
+  </si>
+  <si>
+    <t>微博ID：艾姊辰大哥哥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">艾姊辰 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">田雄paint drop一代  blue
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 花都区 新华街道田美村北5队碧秀花园后面百世快递</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李艳 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 @flyhigh_jw 一代反光手幅  B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 白云区 新市街道萧岗明珠北路M8创意园C座1层#AKHX</t>
+  </si>
+  <si>
+    <t>微博ID：-小熊星座的MM豆-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：爱吃桃子的迷妹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏 苏州市 张家港市 国泰润园北门</t>
+  </si>
+  <si>
+    <t> 微博ID：寻觅兔牙星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chole </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙淑宜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贺靖洵 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 越秀区 恤孤院路二横街5号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顾思铭 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：动物观察记录仪 / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 徐汇区 百色路汇成苑二村15号102室</t>
+  </si>
+  <si>
+    <t>赤壁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许虹倪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄milky woong一代  yellow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：美什今天磕可乐了吗</t>
+  </si>
+  <si>
+    <t>湖北 武汉市 洪山区 民族大道182号中南民族大学北区当代学生公寓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘雨(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>周晨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（机 Line 19）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">鬼鬼 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微博ID：6host / 囤货</t>
+    </r>
+  </si>
+  <si>
+    <t>福建 福州市 鼓楼区 城区 五四路恒力城南楼1407</t>
+  </si>
+  <si>
+    <t>王倪均(定金订单编号)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2084,7 +2203,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2272,14 +2391,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF737373"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,8 +2455,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2351,8 +2499,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2371,8 +2534,14 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2409,9 +2578,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2526,18 +2692,9 @@
     <xf numFmtId="176" fontId="22" fillId="7" borderId="0" xfId="5" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2547,13 +2704,42 @@
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="20% - 着色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="20% - 着色 6" xfId="7" builtinId="50"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="4" builtinId="26"/>
     <cellStyle name="计算" xfId="2" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="6" builtinId="23"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2866,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2906,7 +3092,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>7.23</v>
       </c>
       <c r="B2" t="s">
@@ -2921,7 +3107,7 @@
       <c r="E2">
         <v>13915077252</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
@@ -2929,7 +3115,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>178</v>
       </c>
@@ -2942,7 +3128,7 @@
       <c r="E3">
         <v>13918193509</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
@@ -2950,7 +3136,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2963,7 +3149,7 @@
       <c r="E4">
         <v>13566517560</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2971,7 +3157,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
@@ -2992,7 +3178,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3005,7 +3191,7 @@
       <c r="E6">
         <v>18019082909</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>147</v>
       </c>
       <c r="G6" t="s">
@@ -3013,28 +3199,28 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="A7" s="15"/>
+      <c r="B7" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="21">
         <v>811038961570563</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>15546622309</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3241,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
@@ -3076,7 +3262,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3097,7 +3283,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3110,7 +3296,7 @@
       <c r="E11">
         <v>18019082909</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>147</v>
       </c>
       <c r="G11" t="s">
@@ -3118,7 +3304,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="7" t="s">
         <v>181</v>
       </c>
@@ -3139,7 +3325,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="11">
@@ -3237,7 +3423,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>7.24</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3359,24 +3545,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="19" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>810972331647198</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>13564137806</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3386,7 +3572,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>7.25</v>
       </c>
       <c r="B27" t="s">
@@ -3429,7 +3615,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>70</v>
       </c>
@@ -3450,7 +3636,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
@@ -3471,14 +3657,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="11">
         <v>811000492091317</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E31">
@@ -3492,7 +3678,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="8" t="s">
         <v>62</v>
       </c>
@@ -3513,49 +3699,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="10">
-        <v>811002921224096</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="8">
-        <v>13661865073</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="A33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="8">
-        <v>13661865073</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="A34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>81</v>
       </c>
@@ -3576,7 +3726,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
         <v>82</v>
       </c>
@@ -3597,7 +3747,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3616,7 +3766,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>7.26</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3639,7 +3789,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
@@ -3660,7 +3810,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="3" t="s">
         <v>95</v>
       </c>
@@ -3681,7 +3831,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>97</v>
       </c>
@@ -3702,7 +3852,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>99</v>
       </c>
@@ -3763,7 +3913,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>101</v>
       </c>
@@ -3787,7 +3937,7 @@
       <c r="B48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3804,13 +3954,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>7.27</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>810997883437278</v>
       </c>
       <c r="D50" t="s">
@@ -3830,7 +3980,7 @@
       <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <v>810980516602078</v>
       </c>
       <c r="D51" t="s">
@@ -3850,7 +4000,7 @@
       <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>810972331647198</v>
       </c>
       <c r="D52" t="s">
@@ -3882,15 +4032,15 @@
       <c r="F53" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>7.28</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="11">
@@ -3962,7 +4112,7 @@
       <c r="E58">
         <v>13456116425</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>134</v>
       </c>
       <c r="G58" t="s">
@@ -3970,27 +4120,27 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" s="38">
+      <c r="B59" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C59" s="37">
         <v>811040345488683</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>13962951462</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <v>7.29</v>
       </c>
       <c r="B61" t="s">
@@ -4025,7 +4175,7 @@
       <c r="E62">
         <v>13978408027</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="25" t="s">
         <v>187</v>
       </c>
       <c r="G62" t="s">
@@ -4035,10 +4185,10 @@
     <row r="63" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="11"/>
-      <c r="F63" s="26"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48">
+      <c r="A64" s="47">
         <v>7.3</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4048,7 +4198,7 @@
         <v>810993630755095</v>
       </c>
       <c r="D64" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E64">
         <v>13686892317</v>
@@ -4061,8 +4211,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
-        <v>279</v>
+      <c r="B65" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="C65" s="11">
         <v>811011926273410</v>
@@ -4074,53 +4224,35 @@
         <v>18221012625</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48">
+      <c r="A67" s="47">
         <v>7.31</v>
       </c>
-      <c r="B67" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="C67" s="32">
-        <v>811045980212915</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="E67" s="18">
-        <v>18787169397</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>351</v>
-      </c>
     </row>
     <row r="68" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" s="10">
-        <v>811041922008992</v>
-      </c>
-      <c r="D68" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="E68" s="8">
-        <v>13661865073</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>344</v>
+      <c r="B68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="11">
+        <v>811001105717154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68">
+        <v>18138391611</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,10 +4260,10 @@
         <v>138</v>
       </c>
       <c r="C69" s="11">
-        <v>811001105717154</v>
+        <v>810986715043746</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E69">
         <v>18138391611</v>
@@ -4144,322 +4276,621 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>138</v>
+      <c r="B70" t="s">
+        <v>343</v>
       </c>
       <c r="C70" s="11">
-        <v>810986715043746</v>
-      </c>
-      <c r="D70" t="s">
-        <v>83</v>
+        <v>811071124861640</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="E70">
-        <v>18138391611</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>176</v>
+        <v>13307415267</v>
+      </c>
+      <c r="F70" t="s">
+        <v>60</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="11">
+        <v>811070692947147</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71">
+        <v>13918662960</v>
+      </c>
+      <c r="F71" t="s">
+        <v>344</v>
+      </c>
+      <c r="G71" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>8.1</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="11">
+        <v>811054821519787</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="E73">
+        <v>15732178700</v>
+      </c>
+      <c r="F73" t="s">
+        <v>350</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74" s="11">
+        <v>811070907904915</v>
+      </c>
+      <c r="D74" t="s">
+        <v>354</v>
+      </c>
+      <c r="E74">
+        <v>13517804301</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="11">
+        <v>811106161623345</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E75">
+        <v>13017976404</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C76" s="31">
+        <v>811085509119724</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="E76" s="17">
+        <v>13413940501</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="10">
+        <v>811017606373549</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E77" s="8">
+        <v>13794383830</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C78" s="10">
+        <v>810977151099053</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" s="8">
+        <v>13794383830</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="C79" s="52">
+        <v>811096879348818</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79">
+        <v>17508449655</v>
+      </c>
+      <c r="F79" t="s">
+        <v>374</v>
+      </c>
+      <c r="G79" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="11">
+        <v>811057553048416</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>15050861187</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="C81" s="11">
+        <v>811084972248927</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81">
+        <v>18734173173</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="G81" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="53"/>
+    </row>
+    <row r="84" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="53">
+        <v>8.5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>391</v>
+      </c>
+      <c r="C84" s="11">
+        <v>811045980212915</v>
+      </c>
+      <c r="D84" t="s">
+        <v>341</v>
+      </c>
+      <c r="E84">
+        <v>18787169397</v>
+      </c>
+      <c r="F84" t="s">
+        <v>340</v>
+      </c>
+      <c r="G84" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>392</v>
+      </c>
+      <c r="C85" s="11">
+        <v>811074641863678</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85">
+        <v>13450527153</v>
+      </c>
+      <c r="F85" t="s">
+        <v>360</v>
+      </c>
+      <c r="G85" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>395</v>
+      </c>
+      <c r="C86" s="11">
+        <v>811056485476005</v>
+      </c>
+      <c r="D86" t="s">
+        <v>396</v>
+      </c>
+      <c r="E86">
+        <v>18671246871</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="G86" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="11">
+        <v>811075191378487</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87">
+        <v>13844233519</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="G87" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>398</v>
+      </c>
+      <c r="C88" s="11">
+        <v>811048185180727</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E88">
+        <v>13844233519</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="G88" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>405</v>
+      </c>
+      <c r="C89" s="11">
+        <v>810992635625917</v>
+      </c>
+      <c r="D89" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89">
+        <v>13806226766</v>
+      </c>
+      <c r="F89" t="s">
+        <v>403</v>
+      </c>
+      <c r="G89" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>406</v>
+      </c>
+      <c r="C90" s="11">
+        <v>811078949190065</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E90">
+        <v>15773763226</v>
+      </c>
+      <c r="F90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="54"/>
+    </row>
+    <row r="92" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="53">
+        <v>8.6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>407</v>
+      </c>
+      <c r="C92" s="11">
+        <v>811086671491551</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E92">
+        <v>13539676773</v>
+      </c>
+      <c r="F92" t="s">
+        <v>362</v>
+      </c>
+      <c r="G92" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>408</v>
+      </c>
+      <c r="C93" s="11">
+        <v>811062407232038</v>
+      </c>
+      <c r="D93" t="s">
+        <v>415</v>
+      </c>
+      <c r="E93">
+        <v>13668418665</v>
+      </c>
+      <c r="F93" t="s">
+        <v>400</v>
+      </c>
+      <c r="G93" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C94" s="10">
+        <v>811078044464356</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E94" s="8">
+        <v>15975472848</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>413</v>
+      </c>
+      <c r="C95" s="11">
+        <v>811119563131302</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E95">
+        <v>18221240155</v>
+      </c>
+      <c r="F95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>368</v>
+      </c>
+      <c r="C96" s="11">
+        <v>811116646166476</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E96">
+        <v>19802368353</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="G96" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="53">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B98" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" s="11">
+        <v>811083564432717</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E98">
+        <v>13729855888</v>
+      </c>
+      <c r="F98" t="s">
+        <v>387</v>
+      </c>
+      <c r="G98" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C99" s="31">
+        <v>811098858816002</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" s="17">
+        <v>15307266010</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B101" t="s">
+        <v>420</v>
+      </c>
+      <c r="C101" s="11">
+        <v>811041922008992</v>
+      </c>
+      <c r="D101" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="C71" s="11">
-        <v>811071124861640</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="E71">
-        <v>13307415267</v>
-      </c>
-      <c r="F71" t="s">
-        <v>60</v>
-      </c>
-      <c r="G71" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>354</v>
-      </c>
-      <c r="C72" s="11">
-        <v>811070692947147</v>
-      </c>
-      <c r="D72" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="E72">
-        <v>13918662960</v>
-      </c>
-      <c r="F72" t="s">
-        <v>347</v>
-      </c>
-      <c r="G72" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57">
-        <v>8.1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C74" s="11">
-        <v>811054821519787</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="E74">
-        <v>15732178700</v>
-      </c>
-      <c r="F74" t="s">
-        <v>355</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="55" t="s">
-        <v>372</v>
-      </c>
-      <c r="C75" s="11">
-        <v>811070907904915</v>
-      </c>
-      <c r="D75" t="s">
-        <v>359</v>
-      </c>
-      <c r="E75">
-        <v>13517804301</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="G75" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>376</v>
-      </c>
-      <c r="C76" s="11">
-        <v>811116646166476</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="E76">
-        <v>19802368353</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="G76" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>373</v>
-      </c>
-      <c r="C77" s="11">
-        <v>811106161623345</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="E77">
-        <v>13017976404</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="C78" s="32">
-        <v>811078949190065</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="E78" s="18">
-        <v>15773763226</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="G78" s="18"/>
-    </row>
-    <row r="79" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="C79" s="32">
-        <v>811074641863678</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="E79" s="18">
-        <v>13450527153</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="C80" s="32">
-        <v>811086671491551</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="E80" s="18">
-        <v>13539676773</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C81" s="32">
-        <v>811085509119724</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="E81" s="18">
-        <v>13413940501</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="G81" s="31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C82" s="10">
-        <v>811017606373549</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E82" s="8">
-        <v>13794383830</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C83" s="10">
-        <v>810977151099053</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E83" s="8">
-        <v>13794383830</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>384</v>
-      </c>
-      <c r="C84" s="56">
-        <v>811096879348818</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="E84">
-        <v>17508449655</v>
-      </c>
-      <c r="F84" t="s">
-        <v>382</v>
-      </c>
-      <c r="G84" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" s="11">
-        <v>811057553048416</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
-        <v>15050861187</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>386</v>
-      </c>
-      <c r="C86" s="11">
-        <v>811084972248927</v>
-      </c>
-      <c r="D86" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="E86">
-        <v>18734173173</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="G86" t="s">
-        <v>387</v>
-      </c>
+      <c r="E101">
+        <v>13661865073</v>
+      </c>
+      <c r="F101" t="s">
+        <v>67</v>
+      </c>
+      <c r="G101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="61">
+        <v>2</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="59">
+        <v>811002921224096</v>
+      </c>
+      <c r="D102" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="58">
+        <v>13661865073</v>
+      </c>
+      <c r="F102" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G102" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103">
+        <v>13661865073</v>
+      </c>
+      <c r="F103" t="s">
+        <v>67</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17">
+        <v>13850176822</v>
+      </c>
+      <c r="F104" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>398</v>
+      </c>
+      <c r="C105" s="11">
+        <v>811075191378487</v>
+      </c>
+      <c r="D105" t="s">
+        <v>346</v>
+      </c>
+      <c r="E105">
+        <v>13844233519</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="G105" t="s">
+        <v>402</v>
+      </c>
+      <c r="H105" s="62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4512,7 +4943,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4522,18 +4953,18 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3"/>
       <c r="C7" s="11"/>
       <c r="F7" s="6"/>
@@ -4554,12 +4985,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="7"/>
@@ -4570,20 +5001,20 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4596,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5875A0-B92D-47EF-B3AC-853650A65CA1}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4634,7 +5065,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>7.29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4649,16 +5080,16 @@
       <c r="E2">
         <v>15021611629</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="10">
         <v>810942878308578</v>
@@ -4697,7 +5128,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="9">
@@ -4775,12 +5206,12 @@
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="9">
         <v>810947894193093</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>218</v>
       </c>
       <c r="E9">
@@ -4814,22 +5245,22 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="50">
+      <c r="B11" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="49">
         <v>811069697845701</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>13566517560</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4840,7 +5271,7 @@
       <c r="C12" s="9">
         <v>811072717528986</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>227</v>
       </c>
       <c r="E12">
@@ -5006,77 +5437,77 @@
       <c r="E20">
         <v>13962951462</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="11">
         <v>811083578473417</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>247</v>
+      <c r="D21" s="25" t="s">
+        <v>246</v>
       </c>
       <c r="E21">
         <v>13076698356</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>248</v>
+      <c r="F21" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="11">
         <v>811018293425055</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>254</v>
+      <c r="D23" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="E23">
         <v>13304758783</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="11">
         <v>811135256657328</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>250</v>
+      <c r="D24" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="E24">
         <v>13510562372</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G24" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
-        <v>260</v>
       </c>
       <c r="C25" s="11">
         <v>811074749396236</v>
@@ -5088,106 +5519,106 @@
         <v>13668874139</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="B26" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="31">
         <v>811137701319006</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="17">
+        <v>13662865073</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
+        <v>13864454666</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="18">
-        <v>13662865073</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18">
-        <v>13864454666</v>
-      </c>
-      <c r="F27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>263</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="11">
         <v>811067301872322</v>
       </c>
       <c r="D28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E28">
         <v>13738351071</v>
       </c>
       <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
         <v>265</v>
       </c>
-      <c r="G28" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18">
+      <c r="B29" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17">
         <v>15936716738</v>
       </c>
-      <c r="F29" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" s="18"/>
+      <c r="F29" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>276</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="8">
         <v>18926618206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="47">
         <v>7.3</v>
       </c>
       <c r="B32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="11">
         <v>811070952354563</v>
@@ -5201,7 +5632,7 @@
       <c r="F32" t="s">
         <v>148</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="25" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5224,392 +5655,392 @@
     </row>
     <row r="34" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="11">
         <v>811115279963256</v>
       </c>
       <c r="D34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E34">
         <v>15703148650</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>249</v>
+      <c r="F34" s="25" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="11">
         <v>810907843297986</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35">
         <v>13738351071</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>265</v>
+      <c r="F35" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C36" s="11">
         <v>810920467776194</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E36">
         <v>13738351071</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>265</v>
+      <c r="F36" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C37" s="11">
         <v>811101975731641</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E37">
         <v>18702098544</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="11">
         <v>811083276735914</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>227</v>
       </c>
       <c r="E38">
         <v>13328210351</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C39" s="10">
         <v>811118598871022</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E39" s="8">
         <v>13971516992</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C40" s="11">
         <v>811018293425055</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>254</v>
+      <c r="D40" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="E40">
         <v>13304758783</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17">
+        <v>18310963695</v>
+      </c>
+      <c r="F41" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18">
-        <v>18310963695</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="11">
         <v>811071354988336</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E42">
         <v>17330922031</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>301</v>
+      <c r="F42" s="25" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="D43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="E43" s="40">
+      <c r="C43" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="39">
         <v>17621774551</v>
       </c>
-      <c r="F43" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>306</v>
+      <c r="F43" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>305</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>338</v>
+        <v>304</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>337</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E44">
         <v>17621774551</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="41">
+        <v>811056691463116</v>
+      </c>
+      <c r="D45" t="s">
         <v>312</v>
-      </c>
-      <c r="C45" s="42">
-        <v>811056691463116</v>
-      </c>
-      <c r="D45" t="s">
-        <v>313</v>
       </c>
       <c r="E45">
         <v>13568948308</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46" s="17">
+        <v>13251336225</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" s="43">
+        <v>811142652466081</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" s="17">
+        <v>18948339201</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="E46" s="18">
-        <v>13251336225</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="36" t="s">
+      <c r="G47" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="C47" s="44">
-        <v>811142652466081</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E47" s="18">
-        <v>18948339201</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="G47" s="18" t="s">
+      <c r="C48" s="43">
+        <v>811126870583439</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E48" s="17">
+        <v>18368712909</v>
+      </c>
+      <c r="F48" s="30" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="36" t="s">
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="43">
+        <v>811056745591394</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E49" s="17">
+        <v>18234438967</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C48" s="44">
-        <v>811126870583439</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="E48" s="18">
-        <v>18368712909</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C49" s="44">
-        <v>811056745591394</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="E49" s="18">
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="43">
+        <v>811071564370530</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="17">
         <v>18234438967</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F50" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51" s="43">
+        <v>811071518954082</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C50" s="44">
-        <v>811071564370530</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="18">
+      <c r="E51" s="17">
         <v>18234438967</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C51" s="44">
-        <v>811071518954082</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E51" s="18">
-        <v>18234438967</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="G51" s="18"/>
+      <c r="F51" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" s="43">
+        <v>811127102423719</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="17">
+        <v>13479298036</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C53" s="43">
+        <v>811055142564936</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="17">
+        <v>13411513126</v>
+      </c>
+      <c r="F53" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C52" s="44">
-        <v>811127102423719</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="E52" s="18">
-        <v>13479298036</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C53" s="44">
-        <v>811055142564936</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="18">
-        <v>13411513126</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="G53" s="18"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C54" s="10">
         <v>811093925624616</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E54" s="8">
         <v>13580419140</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9C74F-473C-4C56-9F17-302A591A671D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F63DBE-E63E-46D5-B6D3-FB465596EB53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="496">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1834,20 +1834,6 @@
     <t>广东 深圳市 龙岗区 龙岗街道南联银威路8号二楼</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>微博ID： kim燕酱</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>刘逸凡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1973,10 +1959,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>阿娴(补国内+包装费)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金宇硕饭制金属徽章 love shot*2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2114,10 +2096,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>许虹倪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>田雄milky woong一代  yellow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2180,15 +2158,396 @@
     <t>福建 福州市 鼓楼区 城区 五四路恒力城南楼1407</t>
   </si>
   <si>
-    <t>王倪均(定金订单编号)</t>
+    <t>4条手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补发透扇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 佛山市 禅城区 祖庙街道南桂西路25号8座501房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卢小姐 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两set一起购买附赠手机支架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：本职是多担</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江 嘉兴市 南湖区 大桥镇 亚欧路851号 东方都市西门</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金宇硕饭制金属徽章 粉色宇硕</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金宇硕饭制金属徽章 love shot</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">潘可爱 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金东彬none archive </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>田雄paint drop一代  blue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>田雄FALLIN’ LOVE  Teddy</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>田雄 @flyhigh_jw  A+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：我就是超级妙妙 / 囤货</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>囤货</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补发</t>
+  </si>
+  <si>
+    <t>微博ID：一生一事winter / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王倪均</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5手幅+1贴纸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北 武汉市 洪山区 民族大道182号中南民族大学南区宿舍</t>
+  </si>
+  <si>
+    <t>微博ID：Rina_Sakurai / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙瑶 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄FALLIN’ LOVE  Dream</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX团体手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雨植</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江 齐齐哈尔市 建华区 卜奎北大街333号齐齐哈尔医学院医学技术学院医学检验系杨雨植杏林园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：WZ小雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 朝阳区 劲松九区910号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桑磊 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：swY_Yii</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>811012441981859 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江 宁波市 北仑区 新碶街道花样年花郡 1幢2001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆巧怡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建 厦门市 思明区 西浦路37号601室</t>
+  </si>
+  <si>
+    <t>  微博ID：要去喝四季奶青了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门彭于晏(补国内+包装)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭制金属徽章 love shot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭制李镇赫boss金属徽章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2徽章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>囤货发货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李镇赫徽章+国内邮费+包装费 拍在贩卖机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 天河区 珠江新城海月路413号新城海滨花园N4栋2901B房</t>
+  </si>
+  <si>
+    <t>微博ID：就随便嗑嗑吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：Rina_Sakurai / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙瑶 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏 苏州市 昆山市 花桥镇 圣心西环路99弄36号104室</t>
+  </si>
+  <si>
+    <t>微博ID：Bacony_咸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭制金属徽章 love shot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿娴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微博ID： kim燕酱</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港 香港岛 中西区 德辅道中189号李宝椿大厦8楼</t>
+  </si>
+  <si>
+    <t>微博ID：MengMengLiii</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港顺丰到付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">李萌 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 荔湾区 十八甫北路8号(放荔景华庭快递柜 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴倩殷 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：YeaheeAh-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAE朴再兴OUVER PLANET二代</t>
+  </si>
+  <si>
+    <t>2手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许虹倪(补国内+包装费)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">覃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 Fluffy Wing 1st CHEERING KIT 反光手幅 WING</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 浦东新区 祝桥镇 机场工作区 安航路399号 上海东方航空食品有限公司</t>
+  </si>
+  <si>
+    <t>广东 佛山市 南海区 狮山镇 小塘三环东路9号上林苑1栋首美宜佳（菜鸟驿站：13516611497）</t>
+  </si>
+  <si>
+    <t>微博ID：ALLFORSUGA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：MarsNuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>young k youngandnew1219手幅 A set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 Little Moment一代双面仿麂皮手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王涵洋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港 新界 葵青区 青衣長康邨康貴樓1028室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lau Tsz King </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 Fluffy Wing 1st CHEERING KIT 反光手幅 KARMA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄paint drop一代  blue ver.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>young k youngandnew1219手幅 B set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张睿(补定金订单编号)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2203,7 +2562,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2415,8 +2774,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF737373"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF737373"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2464,6 +2845,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2541,7 +2928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2713,9 +3100,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
@@ -2730,6 +3114,39 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3052,20 +3469,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="39.21875" customWidth="1"/>
     <col min="7" max="7" width="34.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4003,7 +4422,7 @@
       <c r="C52" s="16">
         <v>810972331647198</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E52">
@@ -4121,7 +4540,7 @@
     </row>
     <row r="59" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C59" s="37">
         <v>811040345488683</v>
@@ -4198,7 +4617,7 @@
         <v>810993630755095</v>
       </c>
       <c r="D64" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E64">
         <v>13686892317</v>
@@ -4366,7 +4785,7 @@
         <v>811106161623345</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E75">
         <v>13017976404</v>
@@ -4375,69 +4794,49 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="C76" s="31">
-        <v>811085509119724</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="E76" s="17">
-        <v>13413940501</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>367</v>
-      </c>
-    </row>
     <row r="77" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="55" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C77" s="10">
         <v>811017606373549</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E77" s="8">
         <v>13794383830</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C78" s="10">
         <v>810977151099053</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E78" s="8">
         <v>13794383830</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C79" s="52">
         <v>811096879348818</v>
@@ -4449,10 +4848,10 @@
         <v>17508449655</v>
       </c>
       <c r="F79" t="s">
+        <v>373</v>
+      </c>
+      <c r="G79" t="s">
         <v>374</v>
-      </c>
-      <c r="G79" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4477,22 +4876,22 @@
     </row>
     <row r="81" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C81" s="11">
         <v>811084972248927</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E81">
         <v>18734173173</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4503,7 +4902,7 @@
         <v>8.5</v>
       </c>
       <c r="B84" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C84" s="11">
         <v>811045980212915</v>
@@ -4518,18 +4917,18 @@
         <v>340</v>
       </c>
       <c r="G84" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C85" s="11">
         <v>811074641863678</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E85">
         <v>13450527153</v>
@@ -4543,67 +4942,67 @@
     </row>
     <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C86" s="11">
         <v>811056485476005</v>
       </c>
       <c r="D86" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E86">
         <v>18671246871</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G86" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C87" s="11">
         <v>811075191378487</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E87">
         <v>13844233519</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G87" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C88" s="11">
         <v>811048185180727</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E88">
         <v>13844233519</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G88" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C89" s="11">
         <v>810992635625917</v>
@@ -4615,21 +5014,21 @@
         <v>13806226766</v>
       </c>
       <c r="F89" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G89" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C90" s="11">
         <v>811078949190065</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E90">
         <v>15773763226</v>
@@ -4646,7 +5045,7 @@
         <v>8.6</v>
       </c>
       <c r="B92" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C92" s="11">
         <v>811086671491551</v>
@@ -4666,70 +5065,70 @@
     </row>
     <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C93" s="11">
         <v>811062407232038</v>
       </c>
       <c r="D93" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E93">
         <v>13668418665</v>
       </c>
       <c r="F93" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G93" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C94" s="10">
         <v>811078044464356</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E94" s="8">
         <v>15975472848</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C95" s="11">
         <v>811119563131302</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E95">
         <v>18221240155</v>
       </c>
       <c r="F95" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C96" s="11">
         <v>811116646166476</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E96">
         <v>19802368353</v>
@@ -4745,28 +5144,28 @@
       <c r="A98" s="53">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B98" t="s">
-        <v>414</v>
-      </c>
-      <c r="C98" s="11">
+      <c r="B98" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C98" s="31">
         <v>811083564432717</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="17">
         <v>13729855888</v>
       </c>
-      <c r="F98" t="s">
-        <v>387</v>
-      </c>
-      <c r="G98" t="s">
-        <v>388</v>
+      <c r="F98" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C99" s="31">
         <v>811098858816002</v>
@@ -4778,97 +5177,101 @@
         <v>15307266010</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="53">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C101" s="58">
+        <v>811041922008992</v>
+      </c>
+      <c r="D101" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="E101" s="57">
+        <v>13661865073</v>
+      </c>
+      <c r="F101" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G101" s="57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="C101" s="11">
-        <v>811041922008992</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E101">
+      <c r="B102" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="58">
+        <v>811002921224096</v>
+      </c>
+      <c r="D102" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="57">
         <v>13661865073</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="G101" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61">
-        <v>2</v>
-      </c>
-      <c r="B102" s="58" t="s">
+      <c r="G102" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="59">
-        <v>811002921224096</v>
-      </c>
-      <c r="D102" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E102" s="58">
+      <c r="C103" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="57">
         <v>13661865073</v>
       </c>
-      <c r="F102" s="58" t="s">
+      <c r="F103" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="G102" s="58" t="s">
+      <c r="G103" s="57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103">
-        <v>13661865073</v>
-      </c>
-      <c r="F103" t="s">
-        <v>67</v>
-      </c>
-      <c r="G103" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="104" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17">
+      <c r="B104" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C104" s="10">
+        <v>811036938279112</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="8">
         <v>13850176822</v>
       </c>
-      <c r="F104" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>424</v>
+      <c r="F104" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C105" s="11">
         <v>811075191378487</v>
@@ -4880,19 +5283,497 @@
         <v>13844233519</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G105" t="s">
-        <v>402</v>
-      </c>
-      <c r="H105" s="62" t="s">
-        <v>425</v>
+        <v>400</v>
+      </c>
+      <c r="H105" s="61" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B106" s="54"/>
     </row>
+    <row r="107" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="47">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="B107" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="C107" s="58">
+        <v>811077525547630</v>
+      </c>
+      <c r="D107" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E107" s="57">
+        <v>15602834843</v>
+      </c>
+      <c r="F107" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="G107" s="57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="57"/>
+      <c r="C108" s="58">
+        <v>811051089291886</v>
+      </c>
+      <c r="D108" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+    </row>
+    <row r="109" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B109" s="59"/>
+      <c r="C109" s="58">
+        <v>811055154850414</v>
+      </c>
+      <c r="D109" s="57" t="s">
+        <v>432</v>
+      </c>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+    </row>
+    <row r="110" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="57"/>
+      <c r="C110" s="58">
+        <v>811098839779950</v>
+      </c>
+      <c r="D110" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="E110" s="57"/>
+      <c r="F110" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="G110" s="57"/>
+    </row>
+    <row r="111" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="57"/>
+      <c r="C111" s="58">
+        <v>811024417483374</v>
+      </c>
+      <c r="D111" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+    </row>
+    <row r="112" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C112" s="10">
+        <v>810998081950554</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="8">
+        <v>15869136256</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+      <c r="C113" s="10">
+        <v>810998081950554</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
+      <c r="C114" s="10">
+        <v>811019779609434</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="47">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="B116" t="s">
+        <v>444</v>
+      </c>
+      <c r="C116" s="9">
+        <v>811017049572590</v>
+      </c>
+      <c r="D116" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116">
+        <v>18946204276</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="G116" s="56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C117" s="10">
+        <v>810992621145717</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E117" s="8">
+        <v>18827047998</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="8"/>
+      <c r="C118" s="10">
+        <v>810992753659509</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="66"/>
+    </row>
+    <row r="120" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="47">
+        <v>8.15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>448</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120">
+        <v>13701112280</v>
+      </c>
+      <c r="F120" t="s">
+        <v>447</v>
+      </c>
+      <c r="G120" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="47">
+        <v>8.16</v>
+      </c>
+      <c r="B122" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="C122" s="58">
+        <v>811015884214903</v>
+      </c>
+      <c r="D122" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="E122" s="57">
+        <v>13116627232</v>
+      </c>
+      <c r="F122" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="G122" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="H122" s="70" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="B123" s="57"/>
+      <c r="C123" s="58">
+        <v>810995407327863</v>
+      </c>
+      <c r="D123" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="E123" s="57"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="71"/>
+    </row>
+    <row r="124" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C124" s="43">
+        <v>810999945532009</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="17">
+        <v>15759221676</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="47">
+        <v>8.18</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C127" s="10">
+        <v>810992621145717</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E127" s="8">
+        <v>18827047998</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" t="s">
+        <v>473</v>
+      </c>
+      <c r="C128" s="9">
+        <v>811151441965286</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128">
+        <v>69755528</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="G128" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="B129" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="C129" s="58">
+        <v>810999310071203</v>
+      </c>
+      <c r="D129" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="E129" s="57">
+        <v>13192284971</v>
+      </c>
+      <c r="F129" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G129" s="57" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="71"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="69" t="s">
+        <v>494</v>
+      </c>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
+    </row>
+    <row r="131" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="68"/>
+    </row>
+    <row r="132" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="47">
+        <v>8.19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" s="9">
+        <v>811067875039793</v>
+      </c>
+      <c r="D132" t="s">
+        <v>493</v>
+      </c>
+      <c r="E132">
+        <v>18310705003</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G132" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" s="9">
+        <v>810995666602947</v>
+      </c>
+      <c r="D133" t="s">
+        <v>467</v>
+      </c>
+      <c r="E133">
+        <v>18721785328</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="G133" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>489</v>
+      </c>
+      <c r="C134" s="9">
+        <v>810988500280692</v>
+      </c>
+      <c r="D134" t="s">
+        <v>487</v>
+      </c>
+      <c r="E134">
+        <v>15901881853</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="G134" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="B135" t="s">
+        <v>491</v>
+      </c>
+      <c r="C135" s="9">
+        <v>811149963637909</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E135">
+        <v>51339897</v>
+      </c>
+      <c r="F135" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="47">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E137" s="17">
+        <v>18024140709</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>468</v>
+      </c>
+      <c r="C138" s="9">
+        <v>811085509119724</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E138">
+        <v>13413940501</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G138" t="s">
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="A129:A130"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F63DBE-E63E-46D5-B6D3-FB465596EB53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C5149-681F-445A-8AA5-344BCCE9CC52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
@@ -3471,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C5149-681F-445A-8AA5-344BCCE9CC52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25368E-6F32-4DF4-8E5B-011E8FCB4557}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="500">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2547,7 +2547,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>张睿(补定金订单编号)</t>
+    <t>安徽 合肥市 庐阳区 凤台路88号上城国际丁香苑14幢201室</t>
+  </si>
+  <si>
+    <t>微博ID：不服算我输的起名鬼才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄FALLIN’ LOVE 一代反光手幅 Dream</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不想起名 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张睿</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3469,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5732,42 +5747,73 @@
       <c r="A137" s="47">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" t="s">
+        <v>468</v>
+      </c>
+      <c r="C137" s="9">
+        <v>811085509119724</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E137">
+        <v>13413940501</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G137" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="47">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="B139" t="s">
+        <v>498</v>
+      </c>
+      <c r="C139" s="9">
+        <v>811281925478366</v>
+      </c>
+      <c r="D139" t="s">
+        <v>497</v>
+      </c>
+      <c r="E139">
+        <v>18154114929</v>
+      </c>
+      <c r="F139" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17" t="s">
+      <c r="G139" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>499</v>
+      </c>
+      <c r="C140" s="9">
+        <v>810980606002126</v>
+      </c>
+      <c r="D140" t="s">
         <v>488</v>
       </c>
-      <c r="E137" s="17">
+      <c r="E140">
         <v>18024140709</v>
       </c>
-      <c r="F137" s="30" t="s">
+      <c r="F140" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G140" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>468</v>
-      </c>
-      <c r="C138" s="9">
-        <v>811085509119724</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="E138">
-        <v>13413940501</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="G138" t="s">
-        <v>469</v>
-      </c>
+    <row r="141" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="66"/>
+    </row>
+    <row r="142" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25368E-6F32-4DF4-8E5B-011E8FCB4557}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3CD32-A4AE-4B1D-BA16-DA90F14B1C91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="520">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2107,10 +2107,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>潘雨(补国内+包装费)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>周晨</t>
     </r>
@@ -2563,6 +2559,206 @@
   </si>
   <si>
     <t>张睿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津 西青区 精武镇盛兴佳园5号楼1901</t>
+  </si>
+  <si>
+    <t>微博ID：甜丸子酱_ / 囤货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭延靖</t>
+  </si>
+  <si>
+    <t>广东 深圳市 福田区 梅林一村3区16栋18H</t>
+  </si>
+  <si>
+    <t>微博ID：橘子猪崽崽 / 转单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许紫薇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 丰台区 怡海花园富泽园6号楼一单元803</t>
+  </si>
+  <si>
+    <t>田雄sweety一代反光手幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白白 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西 百色市 右江区 城区 百城街道川惠森林花园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄惠程 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：矢作玖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金珉周 DOUBLE SUADE 反光手幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩晓惠 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东城区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豆腐池胡同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UranusNsh</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 浦东新区 张江镇 锦绣路888弄27号1501室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闵译萱 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄sweety一代反光手幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贺靖洵 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3484,20 +3680,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="38.77734375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" customWidth="1"/>
     <col min="7" max="7" width="34.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
@@ -4555,7 +4751,7 @@
     </row>
     <row r="59" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C59" s="37">
         <v>811040345488683</v>
@@ -5160,7 +5356,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C98" s="31">
         <v>811083564432717</v>
@@ -5176,26 +5372,6 @@
       </c>
       <c r="G98" s="17" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="C99" s="31">
-        <v>811098858816002</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="E99" s="17">
-        <v>15307266010</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5203,7 +5379,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C101" s="58">
         <v>811041922008992</v>
@@ -5218,12 +5394,12 @@
         <v>67</v>
       </c>
       <c r="G101" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B102" s="57" t="s">
         <v>65</v>
@@ -5266,7 +5442,7 @@
     </row>
     <row r="104" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C104" s="10">
         <v>811036938279112</v>
@@ -5278,10 +5454,10 @@
         <v>13850176822</v>
       </c>
       <c r="F104" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5304,7 +5480,7 @@
         <v>400</v>
       </c>
       <c r="H105" s="61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5315,22 +5491,22 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C107" s="58">
         <v>811077525547630</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E107" s="57">
         <v>15602834843</v>
       </c>
       <c r="F107" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G107" s="57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5347,14 +5523,14 @@
     </row>
     <row r="109" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B109" s="59"/>
       <c r="C109" s="58">
         <v>811055154850414</v>
       </c>
       <c r="D109" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E109" s="57"/>
       <c r="F109" s="57"/>
@@ -5366,11 +5542,11 @@
         <v>811098839779950</v>
       </c>
       <c r="D110" s="59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E110" s="57"/>
       <c r="F110" s="63" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G110" s="57"/>
     </row>
@@ -5380,7 +5556,7 @@
         <v>811024417483374</v>
       </c>
       <c r="D111" s="59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E111" s="57"/>
       <c r="F111" s="57"/>
@@ -5388,22 +5564,22 @@
     </row>
     <row r="112" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C112" s="10">
         <v>810998081950554</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E112" s="8">
         <v>15869136256</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5412,12 +5588,12 @@
         <v>810998081950554</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="7"/>
       <c r="G113" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,7 +5607,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="7"/>
       <c r="G114" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5439,7 +5615,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="B116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C116" s="9">
         <v>811017049572590</v>
@@ -5451,30 +5627,30 @@
         <v>18946204276</v>
       </c>
       <c r="F116" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="G116" s="56" t="s">
         <v>445</v>
-      </c>
-      <c r="G116" s="56" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C117" s="10">
         <v>810992621145717</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E117" s="8">
         <v>18827047998</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5483,7 +5659,7 @@
         <v>810992753659509</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -5497,10 +5673,10 @@
         <v>8.15</v>
       </c>
       <c r="B120" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D120" t="s">
         <v>83</v>
@@ -5509,10 +5685,10 @@
         <v>13701112280</v>
       </c>
       <c r="F120" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G120" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,37 +5696,37 @@
         <v>8.16</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C122" s="58">
         <v>811015884214903</v>
       </c>
       <c r="D122" s="57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E122" s="57">
         <v>13116627232</v>
       </c>
       <c r="F122" s="59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G122" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="H122" s="70" t="s">
         <v>459</v>
-      </c>
-      <c r="H122" s="70" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B123" s="57"/>
       <c r="C123" s="58">
         <v>810995407327863</v>
       </c>
       <c r="D123" s="57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E123" s="57"/>
       <c r="F123" s="57"/>
@@ -5559,22 +5735,22 @@
     </row>
     <row r="124" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C124" s="43">
         <v>810999945532009</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E124" s="17">
         <v>15759221676</v>
       </c>
       <c r="F124" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="G124" s="17" t="s">
         <v>453</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5582,68 +5758,68 @@
         <v>8.18</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C127" s="10">
         <v>810992621145717</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E127" s="8">
         <v>18827047998</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="B128" t="s">
         <v>472</v>
-      </c>
-      <c r="B128" t="s">
-        <v>473</v>
       </c>
       <c r="C128" s="9">
         <v>811151441965286</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E128">
         <v>69755528</v>
       </c>
       <c r="F128" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="G128" t="s">
         <v>470</v>
-      </c>
-      <c r="G128" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B129" s="57" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C129" s="58">
         <v>810999310071203</v>
       </c>
       <c r="D129" s="57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E129" s="57">
         <v>13192284971</v>
       </c>
       <c r="F129" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G129" s="57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5651,7 +5827,7 @@
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
       <c r="D130" s="69" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E130" s="57"/>
       <c r="F130" s="57"/>
@@ -5665,82 +5841,82 @@
         <v>8.19</v>
       </c>
       <c r="B132" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C132" s="9">
         <v>811067875039793</v>
       </c>
       <c r="D132" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E132">
         <v>18310705003</v>
       </c>
       <c r="F132" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="G132" t="s">
         <v>461</v>
-      </c>
-      <c r="G132" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C133" s="9">
         <v>810995666602947</v>
       </c>
       <c r="D133" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E133">
         <v>18721785328</v>
       </c>
       <c r="F133" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="G133" t="s">
         <v>465</v>
-      </c>
-      <c r="G133" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C134" s="9">
         <v>810988500280692</v>
       </c>
       <c r="D134" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E134">
         <v>15901881853</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G134" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B135" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C135" s="9">
         <v>811149963637909</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E135">
         <v>51339897</v>
       </c>
       <c r="F135" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5748,7 +5924,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B137" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C137" s="9">
         <v>811085509119724</v>
@@ -5763,7 +5939,7 @@
         <v>366</v>
       </c>
       <c r="G137" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5771,49 +5947,220 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="B139" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C139" s="9">
         <v>811281925478366</v>
       </c>
       <c r="D139" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E139">
         <v>18154114929</v>
       </c>
       <c r="F139" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="G139" t="s">
         <v>495</v>
-      </c>
-      <c r="G139" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C140" s="9">
         <v>810980606002126</v>
       </c>
       <c r="D140" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E140">
         <v>18024140709</v>
       </c>
       <c r="F140" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="G140" t="s">
         <v>484</v>
-      </c>
-      <c r="G140" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="66"/>
     </row>
     <row r="142" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="54"/>
+      <c r="A142" s="47">
+        <v>8.23</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C142" s="10">
+        <v>811018512285538</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="8">
+        <v>18526298343</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="47">
+        <v>8.26</v>
+      </c>
+      <c r="B144" t="s">
+        <v>504</v>
+      </c>
+      <c r="C144" s="9">
+        <v>811098858816002</v>
+      </c>
+      <c r="D144" t="s">
+        <v>345</v>
+      </c>
+      <c r="E144">
+        <v>15307266010</v>
+      </c>
+      <c r="F144" t="s">
+        <v>414</v>
+      </c>
+      <c r="G144" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="47"/>
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="47">
+        <v>8.27</v>
+      </c>
+      <c r="B146" t="s">
+        <v>510</v>
+      </c>
+      <c r="C146" s="9">
+        <v>811085593431641</v>
+      </c>
+      <c r="D146" t="s">
+        <v>512</v>
+      </c>
+      <c r="E146">
+        <v>18907866548</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="G146" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="47"/>
+      <c r="B147" t="s">
+        <v>513</v>
+      </c>
+      <c r="C147" s="9">
+        <v>811014696444717</v>
+      </c>
+      <c r="D147" t="s">
+        <v>507</v>
+      </c>
+      <c r="E147">
+        <v>13717610012</v>
+      </c>
+      <c r="F147" t="s">
+        <v>514</v>
+      </c>
+      <c r="G147" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="54"/>
+    </row>
+    <row r="149" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="47">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="B149" t="s">
+        <v>505</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149">
+        <v>13823175646</v>
+      </c>
+      <c r="F149" t="s">
+        <v>502</v>
+      </c>
+      <c r="G149" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>508</v>
+      </c>
+      <c r="C150" s="9">
+        <v>810997310780351</v>
+      </c>
+      <c r="D150" t="s">
+        <v>507</v>
+      </c>
+      <c r="E150">
+        <v>13716147057</v>
+      </c>
+      <c r="F150" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="47">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B152" t="s">
+        <v>517</v>
+      </c>
+      <c r="C152" s="9">
+        <v>810995066634462</v>
+      </c>
+      <c r="D152" t="s">
+        <v>518</v>
+      </c>
+      <c r="E152">
+        <v>13564137806</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>519</v>
+      </c>
+      <c r="C153" s="9">
+        <v>811014670924326</v>
+      </c>
+      <c r="D153" t="s">
+        <v>518</v>
+      </c>
+      <c r="E153">
+        <v>13668418665</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/补款统计.xlsx
+++ b/补款统计.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3CD32-A4AE-4B1D-BA16-DA90F14B1C91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E7F27-9C19-4BE3-A55F-E0B66EDC313A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{339016DF-D9C5-4FAA-8331-3B1E8CB41734}"/>
   </bookViews>
   <sheets>
-    <sheet name="接受箱" sheetId="3" r:id="rId1"/>
-    <sheet name="未正确补款" sheetId="2" r:id="rId2"/>
-    <sheet name="贩卖机" sheetId="4" r:id="rId3"/>
+    <sheet name="8月接受箱" sheetId="3" r:id="rId1"/>
+    <sheet name="9月接收箱" sheetId="5" r:id="rId2"/>
+    <sheet name="未正确补款" sheetId="2" r:id="rId3"/>
+    <sheet name="贩卖机" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="541">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2759,6 +2760,82 @@
   </si>
   <si>
     <t xml:space="preserve">贺靖洵 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 闵行区 莘庄镇 莘东路51弄68号102室</t>
+  </si>
+  <si>
+    <t>微博ID：你身边的养熊专家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">赵紫仪 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB6IX 田雄 MyStarWoong反光手幅</t>
+  </si>
+  <si>
+    <t>上海 黄浦区 城区 制造局路639号第九人民医院十号楼一楼收费处</t>
+  </si>
+  <si>
+    <t>微博ID：DDD_Stephy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕@1996I027手幅二贩</t>
+  </si>
+  <si>
+    <t>饭制404手机壳(崔秉灿iphone xs max)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丁瑶 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林势俊beyond fancy反光手幅(A+B)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林势俊beyond fancy反光手幅(C)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4手幅+1手机壳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏 南京市 建邺区 应天大街832江苏城市职业学院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吕嘉雯 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东 广州市 天河区 华景东路200号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">董睢阳 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南 衡阳市 雁峰区 永兴阁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡楚婧 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博ID：jing9hu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">夏天 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏 无锡市 滨湖区 河埒街道溪北新村98-1-302室</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3139,7 +3216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3358,6 +3435,12 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3682,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3606-86F7-40CF-98C3-F21E54151E03}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6174,6 +6257,242 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9D5F42-92EB-4C53-9D15-51098F513FFE}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>9.11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" s="9">
+        <v>811302328330815</v>
+      </c>
+      <c r="D2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2">
+        <v>18917609958</v>
+      </c>
+      <c r="F2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="9">
+        <v>811267086049502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3">
+        <v>13564137806</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="58">
+        <v>811273802326245</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="E4" s="73">
+        <v>13611979245</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>524</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="58">
+        <v>811291218780389</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="58">
+        <v>811144090902757</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="58">
+        <v>811098691117285</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="9">
+        <v>811319276725914</v>
+      </c>
+      <c r="D8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E8">
+        <v>15111420379</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" s="9">
+        <v>811264416266974</v>
+      </c>
+      <c r="D9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9">
+        <v>18664536540</v>
+      </c>
+      <c r="F9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="9">
+        <v>811313284211711</v>
+      </c>
+      <c r="D10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10">
+        <v>15580315809</v>
+      </c>
+      <c r="F10" t="s">
+        <v>536</v>
+      </c>
+      <c r="G10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="9">
+        <v>811276672517866</v>
+      </c>
+      <c r="D11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11">
+        <v>15261652508</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A030353D-B40D-464C-A240-1F5A2F1120CD}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -6297,7 +6616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5875A0-B92D-47EF-B3AC-853650A65CA1}">
   <dimension ref="A1:G54"/>
   <sheetViews>
